--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF414E6-C5BE-4755-9567-71C40D247D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED3F97-6AC2-A54E-8091-C10139496D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="364">
   <si>
     <t># Initial population</t>
   </si>
@@ -1686,57 +1686,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:BB121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP38" sqref="AP38"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO31" sqref="AO31:AO34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="5" width="43.140625" style="2" customWidth="1"/>
-    <col min="6" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="42.28515625" customWidth="1"/>
-    <col min="11" max="11" width="43.140625" customWidth="1"/>
-    <col min="12" max="15" width="43.28515625" customWidth="1"/>
-    <col min="16" max="16" width="42.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="34.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="5" width="43.1640625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="43.1640625" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" customWidth="1"/>
+    <col min="12" max="15" width="43.33203125" customWidth="1"/>
+    <col min="16" max="16" width="42.1640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="34.33203125" customWidth="1"/>
+    <col min="18" max="18" width="21.83203125" customWidth="1"/>
     <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="21" customWidth="1"/>
-    <col min="32" max="32" width="20.85546875" customWidth="1"/>
+    <col min="32" max="32" width="46.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
-    <col min="34" max="34" width="21.7109375" customWidth="1"/>
-    <col min="35" max="35" width="22.42578125" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.6640625" customWidth="1"/>
+    <col min="35" max="35" width="22.5" customWidth="1"/>
+    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="28" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="42.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="42.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="54" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>73</v>
       </c>
@@ -1900,7 +1892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>282</v>
       </c>
@@ -2061,7 +2053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2073,7 @@
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>283</v>
       </c>
@@ -2245,7 +2237,7 @@
         <v>2931658</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>336</v>
       </c>
@@ -2409,7 +2401,7 @@
         <v>1974212</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>284</v>
       </c>
@@ -2573,7 +2565,7 @@
         <v>2563862</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>285</v>
       </c>
@@ -2737,7 +2729,7 @@
         <v>1533797</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>286</v>
       </c>
@@ -2901,7 +2893,7 @@
         <v>15741790</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>287</v>
       </c>
@@ -3065,7 +3057,7 @@
         <v>5555576</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -3079,7 +3071,7 @@
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>7</v>
       </c>
@@ -3100,7 +3092,7 @@
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>288</v>
       </c>
@@ -3274,7 +3266,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -3288,7 +3280,7 @@
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>8</v>
       </c>
@@ -3305,7 +3297,7 @@
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>289</v>
       </c>
@@ -3466,7 +3458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>290</v>
       </c>
@@ -3627,7 +3619,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -3641,7 +3633,7 @@
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>9</v>
       </c>
@@ -3658,7 +3650,7 @@
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>291</v>
       </c>
@@ -3819,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>339</v>
       </c>
@@ -3983,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>292</v>
       </c>
@@ -4144,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>293</v>
       </c>
@@ -4305,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -4319,7 +4311,7 @@
       <c r="AA23" s="15"/>
       <c r="AB23" s="15"/>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
@@ -4336,7 +4328,7 @@
       <c r="AA24" s="15"/>
       <c r="AB24" s="15"/>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
@@ -4353,7 +4345,7 @@
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
@@ -4370,7 +4362,7 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>294</v>
       </c>
@@ -4547,7 +4539,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>295</v>
       </c>
@@ -4724,7 +4716,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -4738,7 +4730,7 @@
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>15</v>
       </c>
@@ -4755,7 +4747,7 @@
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>296</v>
       </c>
@@ -4867,17 +4859,17 @@
       <c r="AK31" s="20">
         <v>0</v>
       </c>
-      <c r="AL31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="20">
-        <v>0</v>
+      <c r="AL31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>202</v>
       </c>
       <c r="AP31" s="22" t="s">
         <v>257</v>
@@ -4906,20 +4898,20 @@
       <c r="AX31" s="20">
         <v>0</v>
       </c>
-      <c r="AY31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="20">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AY31" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="AZ31" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA31" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="BB31" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>297</v>
       </c>
@@ -5025,11 +5017,11 @@
       <c r="AI32" t="s">
         <v>203</v>
       </c>
-      <c r="AJ32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="20">
-        <v>0</v>
+      <c r="AJ32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>203</v>
       </c>
       <c r="AL32" s="20">
         <v>0</v>
@@ -5037,11 +5029,11 @@
       <c r="AM32" s="20">
         <v>0</v>
       </c>
-      <c r="AN32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="20">
-        <v>0</v>
+      <c r="AN32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>203</v>
       </c>
       <c r="AP32" s="22" t="s">
         <v>128</v>
@@ -5064,11 +5056,11 @@
       <c r="AV32" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AW32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="20">
-        <v>0</v>
+      <c r="AW32" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX32" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="AY32" s="20">
         <v>0</v>
@@ -5076,14 +5068,14 @@
       <c r="AZ32" s="20">
         <v>0</v>
       </c>
-      <c r="BA32" s="20">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BA32" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB32" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>298</v>
       </c>
@@ -5189,23 +5181,23 @@
       <c r="AI33" t="s">
         <v>204</v>
       </c>
-      <c r="AJ33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="20">
-        <v>0</v>
+      <c r="AJ33" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>204</v>
       </c>
       <c r="AN33" s="20">
         <v>0</v>
       </c>
-      <c r="AO33" s="20">
-        <v>0</v>
+      <c r="AO33" t="s">
+        <v>204</v>
       </c>
       <c r="AP33" s="22" t="s">
         <v>129</v>
@@ -5228,26 +5220,26 @@
       <c r="AV33" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AW33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="20">
-        <v>0</v>
+      <c r="AW33" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX33" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY33" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ33" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="BA33" s="20">
         <v>0</v>
       </c>
-      <c r="BB33" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB33" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>299</v>
       </c>
@@ -5353,20 +5345,20 @@
       <c r="AI34" s="20">
         <v>0</v>
       </c>
-      <c r="AJ34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="20">
-        <v>0</v>
+      <c r="AJ34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>205</v>
       </c>
       <c r="AO34" s="20">
         <v>0</v>
@@ -5392,26 +5384,26 @@
       <c r="AV34" s="20">
         <v>0</v>
       </c>
-      <c r="AW34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA34" s="20">
-        <v>0</v>
+      <c r="AW34" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX34" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AY34" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ34" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA34" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="BB34" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -5425,7 +5417,7 @@
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>20</v>
       </c>
@@ -5442,7 +5434,7 @@
       <c r="AA36" s="15"/>
       <c r="AB36" s="15"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>300</v>
       </c>
@@ -5619,7 +5611,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>301</v>
       </c>
@@ -5796,7 +5788,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -5810,7 +5802,7 @@
       <c r="AA39" s="15"/>
       <c r="AB39" s="15"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>23</v>
       </c>
@@ -5827,7 +5819,7 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
@@ -5841,7 +5833,7 @@
       <c r="AA41" s="15"/>
       <c r="AB41" s="15"/>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>24</v>
       </c>
@@ -5858,7 +5850,7 @@
       <c r="AA42" s="15"/>
       <c r="AB42" s="15"/>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>302</v>
       </c>
@@ -6022,7 +6014,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>303</v>
       </c>
@@ -6186,7 +6178,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>304</v>
       </c>
@@ -6350,7 +6342,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>305</v>
       </c>
@@ -6514,7 +6506,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>306</v>
       </c>
@@ -6678,7 +6670,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>307</v>
       </c>
@@ -6842,7 +6834,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
@@ -6856,7 +6848,7 @@
       <c r="AA49" s="15"/>
       <c r="AB49" s="15"/>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
@@ -6873,7 +6865,7 @@
       <c r="AA50" s="15"/>
       <c r="AB50" s="15"/>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>308</v>
       </c>
@@ -7037,7 +7029,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
@@ -7051,7 +7043,7 @@
       <c r="AA52" s="15"/>
       <c r="AB52" s="15"/>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>32</v>
       </c>
@@ -7068,7 +7060,7 @@
       <c r="AA53" s="15"/>
       <c r="AB53" s="15"/>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>33</v>
       </c>
@@ -7085,7 +7077,7 @@
       <c r="AA54" s="15"/>
       <c r="AB54" s="15"/>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>309</v>
       </c>
@@ -7249,7 +7241,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>310</v>
       </c>
@@ -7413,7 +7405,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>311</v>
       </c>
@@ -7577,7 +7569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>312</v>
       </c>
@@ -7741,7 +7733,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>313</v>
       </c>
@@ -7905,7 +7897,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>314</v>
       </c>
@@ -8069,7 +8061,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
@@ -8083,7 +8075,7 @@
       <c r="AA61" s="15"/>
       <c r="AB61" s="15"/>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>40</v>
       </c>
@@ -8100,7 +8092,7 @@
       <c r="AA62" s="15"/>
       <c r="AB62" s="15"/>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>337</v>
       </c>
@@ -8156,7 +8148,7 @@
       <c r="AA63" s="15"/>
       <c r="AB63" s="15"/>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -8170,7 +8162,7 @@
       <c r="AA64" s="15"/>
       <c r="AB64" s="15"/>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>41</v>
       </c>
@@ -8187,7 +8179,7 @@
       <c r="AA65" s="15"/>
       <c r="AB65" s="15"/>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>42</v>
       </c>
@@ -8204,7 +8196,7 @@
       <c r="AA66" s="15"/>
       <c r="AB66" s="15"/>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>315</v>
       </c>
@@ -8368,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>316</v>
       </c>
@@ -8529,7 +8521,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -8555,7 +8547,7 @@
       <c r="BA69" s="22"/>
       <c r="BB69" s="22"/>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>44</v>
       </c>
@@ -8584,7 +8576,7 @@
       <c r="BA70" s="22"/>
       <c r="BB70" s="22"/>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>317</v>
       </c>
@@ -8745,7 +8737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -8771,7 +8763,7 @@
       <c r="BA72" s="22"/>
       <c r="BB72" s="22"/>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>45</v>
       </c>
@@ -8800,7 +8792,7 @@
       <c r="BA73" s="22"/>
       <c r="BB73" s="22"/>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>318</v>
       </c>
@@ -8964,7 +8956,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
         <v>319</v>
       </c>
@@ -9128,7 +9120,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>320</v>
       </c>
@@ -9292,7 +9284,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
@@ -9318,7 +9310,7 @@
       <c r="BA77" s="22"/>
       <c r="BB77" s="22"/>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>49</v>
       </c>
@@ -9347,7 +9339,7 @@
       <c r="BA78" s="22"/>
       <c r="BB78" s="22"/>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>321</v>
       </c>
@@ -9508,7 +9500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>50</v>
       </c>
@@ -9525,7 +9517,7 @@
       <c r="AA80" s="15"/>
       <c r="AB80" s="15"/>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
         <v>51</v>
       </c>
@@ -9542,7 +9534,7 @@
       <c r="AA81" s="15"/>
       <c r="AB81" s="15"/>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>322</v>
       </c>
@@ -9706,7 +9698,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>323</v>
       </c>
@@ -9870,7 +9862,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>324</v>
       </c>
@@ -10034,7 +10026,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>325</v>
       </c>
@@ -10198,7 +10190,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>326</v>
       </c>
@@ -10362,7 +10354,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>327</v>
       </c>
@@ -10526,7 +10518,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
@@ -10553,7 +10545,7 @@
       <c r="AN88" s="15"/>
       <c r="AO88" s="15"/>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
         <v>55</v>
       </c>
@@ -10570,7 +10562,7 @@
       <c r="AA89" s="15"/>
       <c r="AB89" s="15"/>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
         <v>56</v>
       </c>
@@ -10587,7 +10579,7 @@
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>328</v>
       </c>
@@ -10748,7 +10740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
@@ -10763,7 +10755,7 @@
       <c r="AB92" s="15"/>
       <c r="AP92"/>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A93" s="27" t="s">
         <v>57</v>
       </c>
@@ -10781,7 +10773,7 @@
       <c r="AB93" s="15"/>
       <c r="AP93"/>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
         <v>56</v>
       </c>
@@ -10799,7 +10791,7 @@
       <c r="AB94" s="15"/>
       <c r="AP94"/>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
         <v>329</v>
       </c>
@@ -10960,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
@@ -10975,7 +10967,7 @@
       <c r="AB96" s="15"/>
       <c r="AP96"/>
     </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
         <v>58</v>
       </c>
@@ -10993,7 +10985,7 @@
       <c r="AB97" s="15"/>
       <c r="AP97"/>
     </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>330</v>
       </c>
@@ -11157,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
@@ -11171,7 +11163,7 @@
       <c r="AA99" s="15"/>
       <c r="AB99" s="15"/>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A100" s="27" t="s">
         <v>60</v>
       </c>
@@ -11188,7 +11180,7 @@
       <c r="AA100" s="15"/>
       <c r="AB100" s="15"/>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A101" s="27" t="s">
         <v>61</v>
       </c>
@@ -11205,7 +11197,7 @@
       <c r="AA101" s="15"/>
       <c r="AB101" s="15"/>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
         <v>62</v>
       </c>
@@ -11222,7 +11214,7 @@
       <c r="AA102" s="15"/>
       <c r="AB102" s="15"/>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
         <v>331</v>
       </c>
@@ -11386,7 +11378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
@@ -11400,7 +11392,7 @@
       <c r="AA104" s="15"/>
       <c r="AB104" s="15"/>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
         <v>64</v>
       </c>
@@ -11417,7 +11409,7 @@
       <c r="AA105" s="15"/>
       <c r="AB105" s="15"/>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A106" s="27" t="s">
         <v>65</v>
       </c>
@@ -11434,7 +11426,7 @@
       <c r="AA106" s="15"/>
       <c r="AB106" s="15"/>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A107" s="27" t="s">
         <v>66</v>
       </c>
@@ -11451,7 +11443,7 @@
       <c r="AA107" s="15"/>
       <c r="AB107" s="15"/>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
         <v>332</v>
       </c>
@@ -11612,7 +11604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
         <v>333</v>
       </c>
@@ -11773,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
@@ -11792,7 +11784,7 @@
       <c r="AU110" s="8"/>
       <c r="AV110" s="8"/>
     </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A111" s="27" t="s">
         <v>67</v>
       </c>
@@ -11809,7 +11801,7 @@
       <c r="AA111" s="15"/>
       <c r="AB111" s="15"/>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A112" s="27" t="s">
         <v>65</v>
       </c>
@@ -11826,7 +11818,7 @@
       <c r="AA112" s="15"/>
       <c r="AB112" s="15"/>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A113" s="27" t="s">
         <v>68</v>
       </c>
@@ -11843,7 +11835,7 @@
       <c r="AA113" s="15"/>
       <c r="AB113" s="15"/>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A114" s="27" t="s">
         <v>69</v>
       </c>
@@ -11860,7 +11852,7 @@
       <c r="AA114" s="15"/>
       <c r="AB114" s="15"/>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
         <v>334</v>
       </c>
@@ -12024,7 +12016,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
@@ -12038,7 +12030,7 @@
       <c r="AA116" s="15"/>
       <c r="AB116" s="15"/>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>71</v>
       </c>
@@ -12055,7 +12047,7 @@
       <c r="AA117" s="15"/>
       <c r="AB117" s="15"/>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A118" s="27" t="s">
         <v>72</v>
       </c>
@@ -12072,7 +12064,7 @@
       <c r="AA118" s="15"/>
       <c r="AB118" s="15"/>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
         <v>335</v>
       </c>
@@ -12233,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.2">
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
@@ -12245,7 +12237,7 @@
       <c r="AA120" s="15"/>
       <c r="AB120" s="15"/>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.2">
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
@@ -12273,39 +12265,39 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>362</v>
       </c>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ED3F97-6AC2-A54E-8091-C10139496D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F75541-D4AA-1E4A-A07A-BA142577E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -1092,9 +1092,6 @@
     <t>DM_in_feed</t>
   </si>
   <si>
-    <t>Lab_SR</t>
-  </si>
-  <si>
     <t>lab_non_health</t>
   </si>
   <si>
@@ -1186,6 +1183,9 @@
   </si>
   <si>
     <t>Rules for this to be read by the program</t>
+  </si>
+  <si>
+    <t>Labour</t>
   </si>
 </sst>
 </file>
@@ -1686,9 +1686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:BB121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO31" sqref="AO31:AO34"/>
+      <selection pane="topRight" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1733,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>107</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" t="s">
         <v>339</v>
-      </c>
-      <c r="B20" t="s">
-        <v>340</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6022,43 +6022,43 @@
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" t="s">
         <v>343</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>345</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>346</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>347</v>
-      </c>
-      <c r="J44" t="s">
-        <v>348</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>84</v>
       </c>
       <c r="L44" t="s">
+        <v>348</v>
+      </c>
+      <c r="M44" t="s">
         <v>349</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>350</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>351</v>
-      </c>
-      <c r="O44" t="s">
-        <v>352</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>132</v>
@@ -6189,7 +6189,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
@@ -6213,7 +6213,7 @@
         <v>85</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M45" t="s">
         <v>85</v>
@@ -6377,7 +6377,7 @@
         <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>86</v>
@@ -7112,16 +7112,16 @@
         <v>97</v>
       </c>
       <c r="L55" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" t="s">
         <v>353</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>354</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>355</v>
-      </c>
-      <c r="O55" t="s">
-        <v>356</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>136</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C63">
         <v>0.25</v>
@@ -11445,7 +11445,7 @@
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="C108" t="s">
         <v>105</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B115" t="s">
         <v>70</v>
@@ -12066,7 +12066,7 @@
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -12269,37 +12269,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F75541-D4AA-1E4A-A07A-BA142577E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A303AE5-87B2-6D40-AA51-6F148915C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="28800" windowHeight="7940" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="355">
   <si>
     <t># Initial population</t>
   </si>
@@ -369,42 +369,6 @@
     <t>rpert(10000, 20, 45, 34.3)</t>
   </si>
   <si>
-    <t>rpert(10000, 1077, 1400, 1292)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2048,2252,2150)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 3186,3406,3246)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1918,2110,2004)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 3190,3436,3326)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 5880,6051,5942)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1000, 1300, 1200)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2000, 2200, 2100)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2900, 3100, 2955)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1700, 1870, 1776)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2900, 3124, 3024)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 5400, 5557, 5457)</t>
-  </si>
-  <si>
     <t>rpert(10000, 2.5, 6.5, 3.46)</t>
   </si>
   <si>
@@ -504,24 +468,9 @@
     <t xml:space="preserve">rnorm(10000, 24.1, sd = 0.2) </t>
   </si>
   <si>
-    <t>rpert(10000, 800, 850, 825)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1550, 2800, 1950)</t>
-  </si>
-  <si>
     <t>rpert(10000, 2140, 4093, 3210)</t>
   </si>
   <si>
-    <t>rpert(10000, 900, 2200, 1550)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rpert(10000, 1800, 4350, 3048) </t>
-  </si>
-  <si>
-    <t>rpert(10000, 3850, 9000, 5900)</t>
-  </si>
-  <si>
     <t>rnorm(10000, 0.2, 0.01)</t>
   </si>
   <si>
@@ -558,33 +507,9 @@
     <t>rpert(10000, 18, 37, 30.7)</t>
   </si>
   <si>
-    <t>rpert(10000, 1111, 1180, 1145)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2393, 4324, 3011)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2404, 4599, 3606)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1324, 3235, 2279)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2951, 7133, 4998)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 4904, 11465,  7516)</t>
-  </si>
-  <si>
     <t>rpert(10000, 13, 33, 22.33)</t>
   </si>
   <si>
-    <t xml:space="preserve">rpert(10000, 2951, 7133, 4998) </t>
-  </si>
-  <si>
-    <t>rpert(10000, 4904, 11465, 7516)</t>
-  </si>
-  <si>
     <t>Past_S_Current</t>
   </si>
   <si>
@@ -789,24 +714,6 @@
     <t>rnorm(10000, 31.5, sd = 6.8)</t>
   </si>
   <si>
-    <t>rpert(10000, 650, 850, 750)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1450, 1783, 1616)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1400, 2466, 1530)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 750, 1370, 1062)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1425, 2466.6, 1530)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1800, 3616, 3041)</t>
-  </si>
-  <si>
     <t>rnorm(10000, 0.1, 0.022)</t>
   </si>
   <si>
@@ -840,24 +747,6 @@
     <t>rpert(10000, 18, 40.5, 30)</t>
   </si>
   <si>
-    <t>rpert(10000, 778, 1017, 897)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1314, 1616, 1465)</t>
-  </si>
-  <si>
-    <t>rpert(1000, 1372, 2417, 1499)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 885, 1616, 1253)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1336, 2313, 1434)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1714, 3444, 2897)</t>
-  </si>
-  <si>
     <t>rtruncnorm(10000, 0, 3, 1.7, 0.12)</t>
   </si>
   <si>
@@ -879,24 +768,6 @@
     <t>rnorm(10000, 25.1, sd = 0.2)</t>
   </si>
   <si>
-    <t>rpert(10000,  808,  850, 825)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1375, 2300, 1837.5)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1925, 3800, 3378.3)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1170, 1800, 1450)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1650, 3000, 2495)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 3440, 5833, 4600)</t>
-  </si>
-  <si>
     <t>rnorm(10000, 0.1, 0.016)</t>
   </si>
   <si>
@@ -918,24 +789,6 @@
     <t>rpert(10000, 17, 45, 29)</t>
   </si>
   <si>
-    <t>rpert(10000, 1194, 1256, 1219)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1793, 2998, 2396)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2109, 4163, 3701)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1835, 2823, 2274)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 2214, 4026, 3348)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 3975, 6739, 5315)</t>
-  </si>
-  <si>
     <t>rpert(10000, 0.55, 1.12, 0.85)</t>
   </si>
   <si>
@@ -1152,18 +1005,6 @@
     <t>rtruncnorm(10000, a = 1, b = 15, mean =11.7, sd = 2.14)</t>
   </si>
   <si>
-    <t>rpert(10000, 1000, 1300, 1201)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1000, 1300, 1202)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1000, 1300, 1203)</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1000, 1300, 1204)</t>
-  </si>
-  <si>
     <t>The first row must contain column names</t>
   </si>
   <si>
@@ -1185,7 +1026,139 @@
     <t>Rules for this to be read by the program</t>
   </si>
   <si>
-    <t>Labour</t>
+    <t>rpert(10000, 839, 1676, 1385)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 904, 1805, 1492)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1246, 4300, 2120)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1276, 4402, 2170)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2400, 4013, 2890)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2637, 4409, 3175)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 947, 1891, 1563)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1246, 5949, 2541)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1371, 6544, 2794)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2341, 8413, 4036)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2549, 9161, 4395)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 810, 1600, 1100)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 810, 1713, 1266)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1355, 2158, 1785)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpert(10000, 1355, 3966, 2459) </t>
+  </si>
+  <si>
+    <t>rpert(10000, 2443, 5993, 4155)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1124, 2221, 1527)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2092, 3332, 2756)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2038, 5018, 3333)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1191, 2519, 1862)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2222, 6503, 4032)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 3112, 7634,  5293)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 863, 1350, 1124)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1591, 2417, 1836)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1663, 2687, 2051)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1366, 2701, 1871)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2312, 3796, 2940)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1033, 1615, 1615)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1018, 1592, 1592)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1591, 2417, 2417)</t>
+  </si>
+  <si>
+    <t>rpert(1000, 1663, 2687, 2687)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1336, 2701, 2701)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2312, 3796, 3796)</t>
+  </si>
+  <si>
+    <t>rpert(10000,  925,  1483, 1098)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1065, 2372, 1695)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1800, 3600, 2620)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1100, 2700, 2011)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2330, 5238, 3796)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1366, 2191, 1622)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1388, 3092, 2210)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1972, 3944, 2871)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1451, 2326, 1722)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1476, 3623, 2699)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 2692, 6052, 4386)</t>
+  </si>
+  <si>
+    <t>Lab_SR</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1272,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1321,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1370,6 +1349,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1686,9 +1666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:BB121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1704,14 +1684,15 @@
     <col min="16" max="16" width="42.1640625" style="4" customWidth="1"/>
     <col min="17" max="17" width="34.33203125" customWidth="1"/>
     <col min="18" max="18" width="21.83203125" customWidth="1"/>
-    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="20" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="22" customWidth="1"/>
+    <col min="22" max="22" width="42.1640625" customWidth="1"/>
+    <col min="23" max="28" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="21" customWidth="1"/>
-    <col min="32" max="32" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="46.1640625" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
     <col min="34" max="34" width="21.6640625" customWidth="1"/>
     <col min="35" max="35" width="22.5" customWidth="1"/>
@@ -1723,9 +1704,10 @@
     <col min="41" max="41" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="42.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="54" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5" customWidth="1"/>
+    <col min="45" max="46" width="45.1640625" customWidth="1"/>
+    <col min="47" max="48" width="42.1640625" customWidth="1"/>
+    <col min="49" max="54" width="42.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1733,168 +1715,168 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="R1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="AA1" s="9" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB1" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP1" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AZ1" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA1" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB1" s="9" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="C2" s="24">
         <v>12</v>
@@ -2075,7 +2057,7 @@
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2239,7 +2221,7 @@
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2403,7 +2385,7 @@
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2567,7 +2549,7 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2731,7 +2713,7 @@
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2895,7 +2877,7 @@
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -3094,7 +3076,7 @@
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12:O12" si="0">1/6</f>
@@ -3299,7 +3281,7 @@
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -3341,49 +3323,49 @@
         <v>74</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="W15" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="X15" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Z15" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AA15" s="18" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="AB15" s="15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AC15" s="15" t="s">
         <v>74</v>
       </c>
       <c r="AD15" s="18" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="AE15" s="15" t="s">
         <v>74</v>
@@ -3413,54 +3395,54 @@
         <v>74</v>
       </c>
       <c r="AN15" s="18" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="AO15" s="15" t="s">
         <v>74</v>
       </c>
       <c r="AP15" s="22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AQ15" s="20" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="AR15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AS15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AT15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AU15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AV15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AW15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AX15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AY15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AZ15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="BA15" s="20" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="BB15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -3502,121 +3484,121 @@
         <v>75</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="W16" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="X16" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Y16" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AA16" s="18" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="AB16" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="AC16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AD16" s="20" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="AE16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AH16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AI16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AJ16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AK16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AN16" s="20" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="AP16" s="22" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AQ16" s="20" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="AR16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AS16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AT16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AU16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AV16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AW16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AX16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AY16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="AZ16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="BA16" s="20" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="BB16" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
@@ -3652,7 +3634,7 @@
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3813,10 +3795,10 @@
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3977,7 +3959,7 @@
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4138,7 +4120,7 @@
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -4364,7 +4346,7 @@
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -4422,126 +4404,126 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="W27" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="X27" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Z27" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AA27" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AB27" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="AC27" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD27" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AE27" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="AF27" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="AH27" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="AI27" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="AJ27" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AK27" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="AL27" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AM27" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="AN27" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AO27" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="AP27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AQ27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AR27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AS27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AT27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AU27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AV27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AW27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AX27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AY27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="AZ27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="BA27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="BB27" s="22" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -4599,121 +4581,121 @@
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="W28" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="X28" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Y28" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AA28" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AB28" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="AC28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN28" t="s">
         <v>201</v>
       </c>
-      <c r="AD28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG28" t="s">
+      <c r="AO28" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP28" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AH28" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>223</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>226</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP28" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="AQ28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AR28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AS28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AT28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AU28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AV28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AW28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AX28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AY28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="AZ28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="BA28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="BB28" s="22" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.2">
@@ -4749,7 +4731,7 @@
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -4794,7 +4776,7 @@
         <v>78</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q31" s="19">
         <v>0</v>
@@ -4806,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="W31" s="18">
         <v>0</v>
@@ -4821,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="Y31" s="15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Z31" s="15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="AA31" s="15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="AB31" s="15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="AC31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -4845,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="AG31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AH31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AI31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AJ31" s="20">
         <v>0</v>
@@ -4860,19 +4842,19 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AM31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AN31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AO31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AP31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="AQ31" s="20">
         <v>0</v>
@@ -4884,13 +4866,13 @@
         <v>0</v>
       </c>
       <c r="AT31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="AU31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="AV31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="AW31" s="20">
         <v>0</v>
@@ -4899,21 +4881,21 @@
         <v>0</v>
       </c>
       <c r="AY31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="AZ31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="BA31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="BB31" s="22" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -4958,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q32" s="19">
         <v>0</v>
@@ -4967,22 +4949,22 @@
         <v>0</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="T32" s="19">
         <v>0</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="W32" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="X32" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Y32" s="18">
         <v>0</v>
@@ -4991,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="AA32" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AB32" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AC32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -5006,22 +4988,22 @@
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AG32" s="20">
         <v>0</v>
       </c>
       <c r="AH32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AI32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AJ32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AK32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AL32" s="20">
         <v>0</v>
@@ -5030,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="AN32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AO32" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="AP32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AQ32" s="20">
         <v>0</v>
@@ -5045,22 +5027,22 @@
         <v>0</v>
       </c>
       <c r="AS32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AT32" s="20">
         <v>0</v>
       </c>
       <c r="AU32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AV32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AW32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AX32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="AY32" s="20">
         <v>0</v>
@@ -5069,15 +5051,15 @@
         <v>0</v>
       </c>
       <c r="BA32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="BB32" s="22" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -5122,7 +5104,7 @@
         <v>80</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Q33" s="19">
         <v>0</v>
@@ -5131,37 +5113,37 @@
         <v>0</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="U33" s="19">
         <v>0</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="W33" s="15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="X33" s="15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Y33" s="15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Z33" s="15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AA33" s="18">
         <v>0</v>
       </c>
       <c r="AB33" s="15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AC33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5170,37 +5152,37 @@
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AG33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AH33" s="20">
         <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AJ33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AK33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AL33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AM33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AN33" s="20">
         <v>0</v>
       </c>
       <c r="AO33" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AP33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AQ33" s="20">
         <v>0</v>
@@ -5209,39 +5191,39 @@
         <v>0</v>
       </c>
       <c r="AS33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AT33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AU33" s="20">
         <v>0</v>
       </c>
       <c r="AV33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AW33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AX33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AY33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="AZ33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="BA33" s="20">
         <v>0</v>
       </c>
       <c r="BB33" s="22" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -5286,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q34" s="19">
         <v>0</v>
@@ -5295,37 +5277,37 @@
         <v>0</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="V34" s="19">
         <v>0</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AA34" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AB34" s="18">
         <v>0</v>
       </c>
       <c r="AC34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -5334,37 +5316,37 @@
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AG34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AH34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AI34" s="20">
         <v>0</v>
       </c>
       <c r="AJ34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AK34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AL34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AM34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="AO34" s="20">
         <v>0</v>
       </c>
       <c r="AP34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AQ34" s="20">
         <v>0</v>
@@ -5373,31 +5355,31 @@
         <v>0</v>
       </c>
       <c r="AS34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AT34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AU34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AV34" s="20">
         <v>0</v>
       </c>
       <c r="AW34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AX34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AY34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AZ34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="BA34" s="22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="BB34" s="20">
         <v>0</v>
@@ -5436,7 +5418,7 @@
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -5533,87 +5515,87 @@
         <v>9.2589999999999999E-3</v>
       </c>
       <c r="AC37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AD37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AE37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AF37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AG37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AH37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AI37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AJ37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AK37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AL37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AM37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AN37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AO37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AP37" s="22" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AQ37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AR37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AS37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AT37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AU37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AV37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AW37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AX37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AY37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AZ37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BA37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="BB37" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -5852,7 +5834,7 @@
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -5897,49 +5879,49 @@
         <v>82</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="19" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="X43" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Y43" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Z43" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AA43" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AB43" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AC43" t="s">
         <v>82</v>
       </c>
       <c r="AD43" s="20" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AE43" t="s">
         <v>82</v>
@@ -5957,7 +5939,7 @@
         <v>82</v>
       </c>
       <c r="AJ43" s="20" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AK43" t="s">
         <v>82</v>
@@ -5975,135 +5957,135 @@
         <v>82</v>
       </c>
       <c r="AP43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AQ43" s="20" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="AR43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AS43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AT43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AU43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AV43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AW43" s="20" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="AX43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AY43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AZ43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="BA43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="BB43" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G44" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="H44" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="J44" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>84</v>
       </c>
       <c r="L44" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="M44" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="N44" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="O44" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="P44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q44" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="Q44" s="19" t="s">
-        <v>149</v>
-      </c>
       <c r="R44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="W44" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="X44" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="S44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="W44" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="X44" s="18" t="s">
-        <v>149</v>
-      </c>
       <c r="Y44" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Z44" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AA44" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AB44" s="15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="AC44" t="s">
         <v>82</v>
       </c>
       <c r="AD44" s="20" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="AE44" t="s">
         <v>82</v>
@@ -6124,7 +6106,7 @@
         <v>82</v>
       </c>
       <c r="AK44" s="20" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="AL44" t="s">
         <v>82</v>
@@ -6139,48 +6121,48 @@
         <v>82</v>
       </c>
       <c r="AP44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AQ44" s="20" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="AR44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AS44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AT44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AU44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AV44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AW44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AX44" s="20" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="AY44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="AZ44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="BA44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="BB44" s="22" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -6189,7 +6171,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="E45" t="s">
         <v>85</v>
@@ -6213,7 +6195,7 @@
         <v>85</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s">
         <v>85</v>
@@ -6225,126 +6207,126 @@
         <v>85</v>
       </c>
       <c r="P45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="Q45" s="19" t="s">
-        <v>150</v>
-      </c>
       <c r="R45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="W45" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="X45" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="S45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="W45" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y45" s="18" t="s">
-        <v>150</v>
-      </c>
       <c r="Z45" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AA45" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AB45" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AC45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AD45" s="20" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="AE45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AF45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AG45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AH45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AI45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AJ45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AK45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AL45" s="20" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="AM45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AN45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AO45" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AP45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AQ45" s="20" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="AR45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AS45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AT45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AU45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AV45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AW45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AX45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="AY45" s="20" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="AZ45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="BA45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="BB45" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -6377,7 +6359,7 @@
         <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>86</v>
@@ -6389,126 +6371,126 @@
         <v>85</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Q46" s="19" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="W46" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="X46" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Z46" s="18" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="AA46" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AB46" s="15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AC46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD46" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM46" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ46" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="AD46" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE46" t="s">
+      <c r="AR46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AX46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY46" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ46" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="AF46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM46" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO46" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ46" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AT46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AW46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AX46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY46" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AZ46" s="20" t="s">
-        <v>271</v>
-      </c>
       <c r="BA46" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="BB46" s="22" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -6553,126 +6535,126 @@
         <v>87</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Q47" s="19" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="W47" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="X47" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Y47" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Z47" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AA47" s="18" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="AB47" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="AC47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD47" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN47" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ47" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="AD47" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE47" t="s">
+      <c r="AR47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ47" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA47" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="AF47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN47" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ47" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ47" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA47" s="20" t="s">
-        <v>272</v>
-      </c>
       <c r="BB47" s="22" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -6717,121 +6699,121 @@
         <v>90</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="Q48" s="19" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="W48" s="15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="X48" s="15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="Z48" s="15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="AA48" s="15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="AB48" s="18" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="AC48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD48" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO48" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ48" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="AD48" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE48" t="s">
+      <c r="AR48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AY48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB48" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="AF48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AH48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO48" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AQ48" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AR48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AS48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AW48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AY48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA48" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB48" s="20" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.2">
@@ -6867,7 +6849,7 @@
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
@@ -7079,986 +7061,986 @@
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
       </c>
-      <c r="C55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" t="s">
-        <v>97</v>
-      </c>
-      <c r="H55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" t="s">
-        <v>97</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" t="s">
-        <v>97</v>
-      </c>
-      <c r="L55" t="s">
-        <v>352</v>
-      </c>
-      <c r="M55" t="s">
-        <v>353</v>
-      </c>
-      <c r="N55" t="s">
-        <v>354</v>
-      </c>
-      <c r="O55" t="s">
-        <v>355</v>
+      <c r="C55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="K55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="L55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="M55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="O55" s="30" t="s">
+        <v>310</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="Q55" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="R55" t="s">
-        <v>154</v>
+        <v>326</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="V55" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="W55" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="X55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA55" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB55" s="15" t="s">
-        <v>136</v>
+        <v>321</v>
+      </c>
+      <c r="W55" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="X55" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y55" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z55" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA55" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB55" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="AC55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AD55" s="18" t="s">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="AE55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AF55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AG55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AH55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AI55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AJ55" s="18" t="s">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="AK55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AL55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AM55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AN55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AO55" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="AP55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AQ55" s="20" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="AR55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AS55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AT55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AU55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AV55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AW55" s="20" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="AX55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AY55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AZ55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="BA55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="BB55" s="22" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" t="s">
-        <v>98</v>
-      </c>
-      <c r="I56" t="s">
-        <v>98</v>
-      </c>
-      <c r="J56" t="s">
-        <v>98</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L56" t="s">
-        <v>98</v>
-      </c>
-      <c r="M56" t="s">
-        <v>98</v>
-      </c>
-      <c r="N56" t="s">
-        <v>98</v>
-      </c>
-      <c r="O56" t="s">
-        <v>98</v>
+      <c r="C56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="J56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="K56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="L56" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="M56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="N56" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="O56" s="30" t="s">
+        <v>312</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="Q56" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="R56" t="s">
-        <v>155</v>
+        <v>327</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
       <c r="V56" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="W56" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="X56" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y56" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA56" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB56" s="15" t="s">
-        <v>137</v>
+        <v>323</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y56" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z56" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA56" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="AC56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AD56" s="18" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="AE56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AF56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AG56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AH56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AI56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AJ56" t="s">
-        <v>232</v>
-      </c>
-      <c r="AK56" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>232</v>
+        <v>333</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL56" s="18" t="s">
+        <v>339</v>
       </c>
       <c r="AM56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AN56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AO56" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="AP56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="AQ56" s="20" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="AR56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="AS56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="AT56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="AU56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="AV56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="AW56" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="AX56" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
+      </c>
+      <c r="AX56" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="AY56" s="20" t="s">
+        <v>349</v>
       </c>
       <c r="AZ56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="BA56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="BB56" s="22" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" t="s">
-        <v>99</v>
-      </c>
-      <c r="J57" t="s">
-        <v>99</v>
-      </c>
-      <c r="K57" t="s">
-        <v>99</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="M57" t="s">
-        <v>99</v>
-      </c>
-      <c r="N57" t="s">
-        <v>99</v>
-      </c>
-      <c r="O57" t="s">
-        <v>99</v>
+      <c r="C57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="J57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="K57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="N57" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="O57" s="30" t="s">
+        <v>314</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="Q57" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="R57" t="s">
-        <v>156</v>
+        <v>328</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="V57" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="W57" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="X57" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y57" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z57" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA57" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB57" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA57" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB57" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="AC57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AD57" s="18" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="AE57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AF57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AG57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AH57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AI57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AJ57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AK57" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL57" s="18" t="s">
-        <v>250</v>
+        <v>334</v>
+      </c>
+      <c r="AL57" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="AM57" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
+      </c>
+      <c r="AN57" s="18" t="s">
+        <v>340</v>
       </c>
       <c r="AO57" s="15" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="AP57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="AQ57" s="18" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="AR57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="AS57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="AT57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="AU57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="AV57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="AW57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
       <c r="AX57" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY57" s="18" t="s">
-        <v>276</v>
+        <v>345</v>
+      </c>
+      <c r="AY57" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="AZ57" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="BA57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
+      </c>
+      <c r="BA57" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="BB57" s="22" t="s">
-        <v>263</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
       </c>
-      <c r="C58" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F58" t="s">
-        <v>100</v>
-      </c>
-      <c r="G58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" t="s">
-        <v>100</v>
-      </c>
-      <c r="J58" t="s">
-        <v>100</v>
-      </c>
-      <c r="K58" t="s">
-        <v>100</v>
-      </c>
-      <c r="L58" t="s">
-        <v>100</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N58" t="s">
-        <v>100</v>
-      </c>
-      <c r="O58" t="s">
-        <v>100</v>
+      <c r="C58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="J58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="L58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="M58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="N58" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="O58" s="30" t="s">
+        <v>310</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="Q58" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="R58" t="s">
-        <v>157</v>
+        <v>329</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="U58" s="4" t="s">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="V58" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="W58" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X58" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y58" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z58" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA58" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB58" s="15" t="s">
-        <v>139</v>
+        <v>322</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="X58" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA58" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="AC58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AD58" s="18" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="AE58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AF58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AG58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AH58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AI58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AJ58" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>234</v>
+        <v>332</v>
+      </c>
+      <c r="AK58" s="18" t="s">
+        <v>338</v>
       </c>
       <c r="AL58" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM58" s="18" t="s">
-        <v>251</v>
+        <v>332</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>332</v>
       </c>
       <c r="AN58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AO58" t="s">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="AP58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="AQ58" s="20" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="AR58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="AS58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="AT58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="AU58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="AV58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="AW58" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
+      </c>
+      <c r="AX58" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="AY58" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ58" s="20" t="s">
-        <v>277</v>
+        <v>343</v>
+      </c>
+      <c r="AZ58" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="BA58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="BB58" s="22" t="s">
-        <v>264</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
       </c>
-      <c r="C59" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" t="s">
-        <v>101</v>
-      </c>
-      <c r="G59" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" t="s">
-        <v>101</v>
-      </c>
-      <c r="I59" t="s">
-        <v>101</v>
-      </c>
-      <c r="J59" t="s">
-        <v>101</v>
-      </c>
-      <c r="K59" t="s">
-        <v>101</v>
-      </c>
-      <c r="L59" t="s">
-        <v>101</v>
-      </c>
-      <c r="M59" t="s">
-        <v>101</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O59" t="s">
-        <v>101</v>
+      <c r="C59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="J59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="K59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="M59" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="N59" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="O59" s="30" t="s">
+        <v>317</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="Q59" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="R59" t="s">
-        <v>158</v>
+        <v>330</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="V59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="W59" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="X59" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y59" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z59" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA59" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB59" s="15" t="s">
-        <v>140</v>
+        <v>324</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z59" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA59" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="AC59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AD59" s="18" t="s">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="AE59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AF59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AG59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AH59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AI59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AJ59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AK59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AL59" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN59" s="18" t="s">
-        <v>252</v>
+        <v>335</v>
+      </c>
+      <c r="AM59" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>335</v>
       </c>
       <c r="AO59" t="s">
-        <v>235</v>
+        <v>335</v>
       </c>
       <c r="AP59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AQ59" s="20" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="AR59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AS59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AT59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AU59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AV59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AW59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AX59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="AY59" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="AZ59" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="BA59" s="20" t="s">
-        <v>278</v>
+        <v>346</v>
+      </c>
+      <c r="AZ59" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="BA59" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="BB59" s="22" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="C60" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" t="s">
-        <v>102</v>
-      </c>
-      <c r="F60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" t="s">
-        <v>102</v>
-      </c>
-      <c r="H60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I60" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" t="s">
-        <v>102</v>
-      </c>
-      <c r="K60" t="s">
-        <v>102</v>
-      </c>
-      <c r="L60" t="s">
-        <v>102</v>
-      </c>
-      <c r="M60" t="s">
-        <v>102</v>
-      </c>
-      <c r="N60" t="s">
-        <v>102</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>96</v>
+      <c r="C60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="K60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="L60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="M60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="N60" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="O60" s="20" t="s">
+        <v>320</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="R60" t="s">
-        <v>159</v>
+        <v>331</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="U60" s="4" t="s">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="V60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="W60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="X60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA60" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB60" s="18" t="s">
-        <v>162</v>
+        <v>325</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="X60" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA60" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB60" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="AC60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AD60" s="18" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="AE60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AF60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AG60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AH60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AI60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AJ60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AK60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AL60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AM60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AN60" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="AO60" s="18" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="AP60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AQ60" s="20" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="AR60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AS60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AT60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AU60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AV60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AW60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AX60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AY60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="AZ60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="BA60" s="22" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="BB60" s="20" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.2">
@@ -8094,7 +8076,7 @@
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="C63">
         <v>0.25</v>
@@ -8198,7 +8180,7 @@
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
         <v>43</v>
@@ -8362,7 +8344,7 @@
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="C68">
         <v>0.5</v>
@@ -8578,7 +8560,7 @@
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C71">
         <v>40</v>
@@ -8794,7 +8776,7 @@
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -8839,126 +8821,126 @@
         <v>0.1</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="S74" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="V74" s="4" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="W74" s="15" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="X74" s="15" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="Y74" s="15" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="Z74" s="15" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="AA74" s="15" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="AB74" s="15" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="AC74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AD74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AE74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AF74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AG74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AH74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AI74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AJ74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AK74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AL74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AM74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AN74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AO74" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AP74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AQ74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AR74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AS74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AT74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AU74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AV74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AW74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AX74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AY74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="AZ74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="BA74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="BB74" s="22" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
@@ -9003,126 +8985,126 @@
         <v>0.2</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="T75" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="V75" s="4" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="W75" s="15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="X75" s="15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Y75" s="15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="Z75" s="15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AA75" s="15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AB75" s="15" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AC75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AD75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AE75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AF75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AG75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AH75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AI75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AJ75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AK75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AL75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AM75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AN75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AO75" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AP75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AQ75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AR75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AS75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AT75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AU75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AV75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AW75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AX75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AY75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="AZ75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="BA75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="BB75" s="22" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -9167,121 +9149,121 @@
         <v>0.3</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="V76" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="W76" s="15" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="X76" s="15" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="Y76" s="15" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="Z76" s="15" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AA76" s="15" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AB76" s="15" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AC76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AD76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AE76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AF76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AG76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AH76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AI76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AJ76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AK76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AL76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AM76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AN76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AO76" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AP76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AQ76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AR76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AS76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AT76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AU76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AV76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AW76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AX76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AY76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AZ76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="BA76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="BB76" s="22" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.2">
@@ -9341,7 +9323,7 @@
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="C79">
         <v>0.5</v>
@@ -9536,7 +9518,7 @@
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s">
         <v>52</v>
@@ -9700,7 +9682,7 @@
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="B83" t="s">
         <v>52</v>
@@ -9864,7 +9846,7 @@
     </row>
     <row r="84" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -10028,7 +10010,7 @@
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
@@ -10192,7 +10174,7 @@
     </row>
     <row r="86" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
@@ -10356,7 +10338,7 @@
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
@@ -10581,7 +10563,7 @@
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="C91">
         <v>0.25</v>
@@ -10793,7 +10775,7 @@
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="C95">
         <v>0.5</v>
@@ -10987,88 +10969,88 @@
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B98" t="s">
         <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="N98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O98" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="S98" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T98" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="U98" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="V98" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="W98" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="X98" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="15" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -11216,166 +11198,166 @@
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B103" t="s">
         <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="S103" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="T103" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="V103" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="W103" s="15" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="X103" s="15" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="Y103" s="15" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="Z103" s="15" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AA103" s="15" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AB103" s="15" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AC103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AD103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AE103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AF103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AG103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AH103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AI103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AJ103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AK103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AL103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AM103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AN103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AO103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AP103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AQ103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AR103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AS103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AT103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AU103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AV103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AW103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AX103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AY103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AZ103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="BA103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="BB103" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.2">
@@ -11445,168 +11427,168 @@
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="N108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="O108" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="S108" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T108" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="U108" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="V108" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="W108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="X108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Y108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Z108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AA108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AB108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AC108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AD108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AE108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AF108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AG108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AH108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AI108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AJ108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AK108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AL108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AM108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AN108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AO108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AP108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AQ108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AR108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AS108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AT108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AU108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AV108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AW108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AX108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AY108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AZ108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="BA108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="BB108" s="15" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -11854,166 +11836,166 @@
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="B115" t="s">
         <v>70</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D115" s="20">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="K115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="N115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q115" s="19">
         <v>0</v>
       </c>
       <c r="R115" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="S115" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="T115" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="U115" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="V115" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="W115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="X115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Y115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Z115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AA115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AB115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AC115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AD115" s="18">
         <v>0</v>
       </c>
       <c r="AE115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AF115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AG115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AH115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AI115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AJ115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AK115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AL115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AM115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AN115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AO115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AP115" s="22" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AQ115" s="20">
         <v>0</v>
       </c>
       <c r="AR115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AS115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AT115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AU115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AV115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AW115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AX115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AY115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AZ115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="BA115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="BB115" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.2">
@@ -12066,7 +12048,7 @@
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -12269,37 +12251,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC1103E-C311-9946-9B5B-B1FD902DED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E6F60-E1B6-154A-9C56-4CF88D2A87C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="6060" yWindow="500" windowWidth="21940" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1584,12 +1584,6 @@
     <t>rpert(10000, (0.52+((0.3-0.52)*0.75)), (0.67+((1.8-0.67)*0.75)),  (0.60+((0.8-0.6)*0.75)))</t>
   </si>
   <si>
-    <t>rpert(10000, (0.37+((0.25-0.37)*0.25)), (0.50+(1.2-0.5)*0.25)), (0.46+((0.85-0.46)*0.25)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (0.37+((0.25-0.37)*0.5)), (0.50+(1.2-0.5)*0.5)), (0.46+((0.85-0.46)*0.5)))</t>
-  </si>
-  <si>
     <t>rpert(10000, (0.37+((0.25-0.37)*0.75)), (0.50+((1.2-0.5)*0.75)), (0.46+((0.85-0.46)*0.75)))</t>
   </si>
   <si>
@@ -1917,24 +1911,6 @@
     <t>rtruncnorm(10000, (1+((6-1)*0.75)), (15+((20-15)*0.75)), (8.5+((11.8-8.5)*0.75)), 1.6)</t>
   </si>
   <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.25)), (15+((16.5-15)*0.25), (11.7+(14-11.7)*0.25)), sd = 2.2)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.5)), (15+((16.5-15)*0.5), (11.7+(14-11.7)*0.5)), sd = 2.2)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.75)), (15+((16.5-15)*0.75), (11.7+(14-11.7)*0.75)), sd = 2.2)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6-1)*0.25)), (15+((15.5-15)*0.25), (8.8+((13-8.8)*0.25)), 1.3)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6-1)*0.5)), (15+((15.5-15)*0.5), (8.8+((13-8.8)*0.5)), 1.3)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6-1)*0.75)), (15+((15.5-15)*0.75), (8.8+((13-8.8)*0.75)), 1.3)</t>
-  </si>
-  <si>
     <t>rtruncnorm(10000, (1+((7.5-1)*0.25)), (15+((24.5-15)*0.25)), (11.7+((13.2-11.7)*0.25)), 2.2)</t>
   </si>
   <si>
@@ -1944,33 +1920,6 @@
     <t>rtruncnorm(10000, (1+((7.5-1)*0.75)), (15+((24.5-15)*0.75)), (11.7+((13.2-11.7)*0.75)), 2.2)</t>
   </si>
   <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.25)), (15+((21.5-15)*0.25)), (8.5+12.5-8.5*0.25)), sd = 1.6)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.5)), (15+((21.5-15)*0.5)), (8.5+12.5-8.5*0.5)), sd = 1.6)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.75)), (15+((21.5-15)*0.75)), (8.5+12.5-8.5*0.75)), sd = 1.6)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((7-1)*0.25)), (15+((17-15)*0.25), (11.7+(13.8-11.7)*0.25)), sd = 2.2)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((7-1)*0.5)), (15+((17-15)*0.5), (11.7+(13.8-11.7)*0.5)), sd = 2.2)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((7-1)*0.75)), (15+((17-15)*0.75), (11.7+(13.8-11.7)*0.75)), sd = 2.2)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.25)), (15+((17-15)*0.25), (8.8+((13.8-8.8)*0.25)), 1.3)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.5)), (15+((17-15)*0.5), (8.8+((13.8-8.8)*0.5)), 1.3)</t>
-  </si>
-  <si>
-    <t>rtruncnorm(10000, (1+((6.5-1)*0.75)), (15+((17-15)*0.75), (8.8+((13.8-8.8)*0.75)), 1.3)</t>
-  </si>
-  <si>
     <t>rnorm(10000, (21.1+((21.5-21.1)*0.25)), sd = 3.8)</t>
   </si>
   <si>
@@ -2052,15 +2001,6 @@
     <t>rnorm(10000, (28.6+((31.2-28.6)*0.75)), sd = 4.1)</t>
   </si>
   <si>
-    <t xml:space="preserve">rnorm(10000, (25.1+(35-25.1)*0.25)), sd = 0.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnorm(10000, (25.1+(35-25.1)*0.5)), sd = 0.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rnorm(10000, (25.1+(35-25.1)*0.75)), sd = 0.2) </t>
-  </si>
-  <si>
     <t xml:space="preserve">rnorm(10000, (29.6+((29-29.6)*0.25)), sd = 0.7) </t>
   </si>
   <si>
@@ -2151,15 +2091,6 @@
     <t>rpert(10000, (925+((1366-925)*0.75)), (1483+((2191-1483)*0.75)), (1098+((1622-1098)*0.75)))</t>
   </si>
   <si>
-    <t>rpert(10000, (1246+((1276+1246)*0.25)), (4300+((4402-4300)*0.25)), (2120+((2170-2120)*0.25)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (1246+((1276+1246)*0.5)), (4300+((4402-4300)*0.5)), (2120+((2170-2120)*0.5)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (1246+((1276+1246)*0.75)), (4300+((4402-4300)*0.75)), (2120+((2170-2120)*0.75)))</t>
-  </si>
-  <si>
     <t>rpert(10000, (1355+((2092-1355)*0.25)), (2158+((3332-2158)*0.25)), (1785+((2756-1758)*0.25)))</t>
   </si>
   <si>
@@ -2169,15 +2100,6 @@
     <t>rpert(10000, (1355+((2092-1355)*0.75)), (2158+((3332-2158)*0.75)), (1785+((2756-1758)*0.75)))</t>
   </si>
   <si>
-    <t>rpert(10000, (1591+((1591-1591)*0.25)), (2417+((2417-2417*0.25)), (1836+((2417-1836)*0.25)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (1591+((1591-1591)*0.5)), (2417+((2417-2417*0.5)), (1836+((2417-1836)*0.5)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (1591+((1591-1591)*0.75)), (2417+((2417-2417*0.75)), (1836+((2417-1836)*0.75)))</t>
-  </si>
-  <si>
     <t>rpert(10000, (1065+((1388-1065)*0.25)), (2372+((3092-2372)*0.25)), (1695+((2210-1695)*0.25)))</t>
   </si>
   <si>
@@ -2187,15 +2109,6 @@
     <t>rpert(10000, (1065+((1388-1065)*0.75)), (2372+((3092-2372)*0.75)), (1695+((2210-1695)*0.75)))</t>
   </si>
   <si>
-    <t>rpert(10000, (2400+((2637-2400)*0.25)), (4013+((4409-4013)*0.25)), (2890+(3175-2890)*0.25)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (2400+((2637-2400)*0.5)), (4013+((4409-4013)*0.5)), (2890+(3175-2890)*0.5)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (2400+((2637-2400)*0.75)), (4013+((4409-4013)*0.75)), (2890+(3175-2890)*0.75)))</t>
-  </si>
-  <si>
     <t>rpert(10000, (2140+((2038-2140)*0.25)), (4093+((5018-4093)*0.25)), (3210+((3333-3210)*0.25)))</t>
   </si>
   <si>
@@ -2205,15 +2118,6 @@
     <t>rpert(10000, (2140+((2038-2140)*0.75)), (4093+((5018-4093)*0.75)), (3210+((3333-3210)*0.75)))</t>
   </si>
   <si>
-    <t>rpert(10000, (1663, 2687, (2051+((2687-2051)*0.25)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (1663, 2687, (2051+((2687-2051)*0.5)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (1663, 2687, (2051+((2687-2051)*0.75)))</t>
-  </si>
-  <si>
     <t>rpert(10000, (1800+((1972-1800)*0.25)), (3600+((3944-3600)*0.25)), (2620+((2871-2620)*0.25)))</t>
   </si>
   <si>
@@ -2223,15 +2127,6 @@
     <t>rpert(10000, (1800+((1972-1800)*0.75)), (3600+((3944-3600)*0.75)), (2620+((2871-2620)*0.75)))</t>
   </si>
   <si>
-    <t>rpert(10000, (839+((947-839)*0.25)), (1676+(1891-1676)*0.25)), (1385+((1563-1385)*0.25)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (839+((947-839)*0.5)), (1676+(1891-1676)*0.5)), (1385+((1563-1385)*0.5)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (839+((947-839)*0.75)), (1676+(1891-1676)*0.75)), (1385+((1563-1385)*0.75)))</t>
-  </si>
-  <si>
     <t>rpert(10000, (810+((1191-810)*0.25)), (1713+((2519-1713)*0.25)), (1266+((1862-1266)*0.25)))</t>
   </si>
   <si>
@@ -2277,15 +2172,6 @@
     <t xml:space="preserve">rpert(10000, (1355+((2222-1355)*0.75)), (3966+((6503-3966)*0.75)), (2459+((4032-2459)*0.75))) </t>
   </si>
   <si>
-    <t>rpert(10000, 1366, 2701, (1871+(2701-1871)*0.25)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1366, 2701, (1871+(2701-1871)*0.5)))</t>
-  </si>
-  <si>
-    <t>rpert(10000, 1366, 2701, (1871+(2701-1871)*0.75)))</t>
-  </si>
-  <si>
     <t>rpert(10000, (1100+((1476-1100)*0.25)), (2700+((3623-2700)*0.25)), (2011+((2699-2011)*0.25)))</t>
   </si>
   <si>
@@ -2329,6 +2215,120 @@
   </si>
   <si>
     <t>rpert(10000, (2330+((2692-2330)*0.75)), (5238+((6052-5238)*0.75)), (3796+((4386-3796)*0.75)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (0.37+((0.25-0.37)*0.25)), (0.50+((1.2-0.5)*0.25)), (0.46+((0.85-0.46)*0.25)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (0.37+((0.25-0.37)*0.5)), (0.50+((1.2-0.5)*0.5)), (0.46+((0.85-0.46)*0.5)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (839+((947-839)*0.25)), (1676+((1891-1676)*0.25)), (1385+((1563-1385)*0.25)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (2400+((2637-2400)*0.25)), (4013+((4409-4013)*0.25)), (2890+((3175-2890)*0.25)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (839+((947-839)*0.5)), (1676+((1891-1676)*0.5)), (1385+((1563-1385)*0.5)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (2400+((2637-2400)*0.5)), (4013+((4409-4013)*0.5)), (2890+((3175-2890)*0.5)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (839+((947-839)*0.75)), (1676+((1891-1676)*0.75)), (1385+((1563-1385)*0.75)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (2400+((2637-2400)*0.75)), (4013+((4409-4013)*0.75)), (2890+((3175-2890)*0.75)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (1246+((1276-1246)*0.5)), (4300+((4402-4300)*0.5)), (2120+((2170-2120)*0.5)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (1246+((1276-1246)*0.25)), (4300+((4402-4300)*0.25)), (2120+((2170-2120)*0.25)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (1246+((1276-1246)*0.75)), (4300+((4402-4300)*0.75)), (2120+((2170-2120)*0.75)))</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.75)), (15+((21.5-15)*0.75)), (8.5+((12.5-8.5)*0.75)), sd = 1.6)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.5)), (15+((21.5-15)*0.5)), (8.5+((12.5-8.5)*0.5)), sd = 1.6)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.25)), (15+((21.5-15)*0.25)), (8.5+((12.5-8.5)*0.25)), sd = 1.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnorm(10000, (25.1+((35-25.1)*0.25)), sd = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnorm(10000, (25.1+((35-25.1)*0.5)), sd = 0.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rnorm(10000, (25.1+((35-25.1)*0.75)), sd = 0.2) </t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.25)), (15+((16.5-15)*0.25)), (11.7+((14-11.7)*0.25)), sd = 2.2)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.5)), (15+((16.5-15)*0.5)), (11.7+((14-11.7)*0.5)), sd = 2.2)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((7-1)*0.5)), (15+((17-15)*0.5)), (11.7+((13.8-11.7)*0.5)), sd = 2.2)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.75)), (15+((16.5-15)*0.75)), (11.7+((14-11.7)*0.75)), sd = 2.2)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((7-1)*0.75)), (15+((17-15)*0.75)), (11.7+((13.8-11.7)*0.75)), sd = 2.2)</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1366, 2701, (1871+((2701-1871)*0.75)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1663, 2687, (2051+((2687-2051)*0.5)))</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((7-1)*0.25)), (15+((17-15)*0.25)), (11.7+((13.8-11.7)*0.25)), sd = 2.2)</t>
+  </si>
+  <si>
+    <t>rpert(10000, (1591+((1591-1591)*0.25)), (2417+((2417-2417)*0.25)), (1836+((2417-1836)*0.25)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (1591+((1591-1591)*0.5)), (2417+((2417-2417)*0.5)), (1836+((2417-1836)*0.5)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1366, 2701, (1871+((2701-1871)*0.25)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1366, 2701, (1871+((2701-1871)*0.5)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1663, 2687, (2051+((2687-2051)*0.25)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (1591+((1591-1591)*0.75)), (2417+((2417-2417)*0.75)), (1836+((2417-1836)*0.75)))</t>
+  </si>
+  <si>
+    <t>rpert(10000, 1663, 2687, (2051+((2687-2051)*0.75)))</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6-1)*0.25)), (15+((15.5-15)*0.25)), (8.8+((13-8.8)*0.25)), 1.3)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.25)), (15+((17-15)*0.25)), (8.8+((13.8-8.8)*0.25)), 1.3)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.5)), (15+((17-15)*0.5)), (8.8+((13.8-8.8)*0.5)), 1.3)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6-1)*0.5)), (15+((15.5-15)*0.5)), (8.8+((13-8.8)*0.5)), 1.3)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6-1)*0.75)), (15+((15.5-15)*0.75)), (8.8+((13-8.8)*0.75)), 1.3)</t>
+  </si>
+  <si>
+    <t>rtruncnorm(10000, (1+((6.5-1)*0.75)), (15+((17-15)*0.75)), (8.8+((13.8-8.8)*0.75)), 1.3)</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2460,6 +2460,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2482,7 +2488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2550,6 +2556,9 @@
     <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2866,9 +2875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:HR121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EA1" sqref="EA1:HR1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="HI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HL60" sqref="HL60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2916,7 +2925,7 @@
     <col min="95" max="96" width="42.1640625" customWidth="1"/>
     <col min="97" max="108" width="18" customWidth="1"/>
     <col min="109" max="114" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="53.1640625" customWidth="1"/>
     <col min="116" max="116" width="52.33203125" customWidth="1"/>
     <col min="117" max="117" width="78.1640625" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="52.33203125" customWidth="1"/>
@@ -2925,8 +2934,8 @@
     <col min="123" max="126" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="82.33203125" bestFit="1" customWidth="1"/>
     <col min="128" max="130" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="19.1640625" customWidth="1"/>
-    <col min="132" max="132" width="17.5" customWidth="1"/>
+    <col min="131" max="131" width="28" customWidth="1"/>
+    <col min="132" max="132" width="56.83203125" customWidth="1"/>
     <col min="133" max="133" width="18" customWidth="1"/>
     <col min="134" max="134" width="18.5" customWidth="1"/>
     <col min="135" max="135" width="18" customWidth="1"/>
@@ -3362,292 +3371,292 @@
         <v>492</v>
       </c>
       <c r="EA1" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="EB1" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="EC1" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="EB1" s="37" t="s">
+      <c r="ED1" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="EC1" s="37" t="s">
+      <c r="EE1" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="ED1" s="37" t="s">
+      <c r="EF1" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="EE1" s="37" t="s">
+      <c r="EG1" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="EF1" s="37" t="s">
+      <c r="EH1" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="EG1" s="37" t="s">
+      <c r="EI1" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="EH1" s="37" t="s">
+      <c r="EJ1" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="EI1" s="37" t="s">
+      <c r="EK1" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="EJ1" s="37" t="s">
+      <c r="EL1" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="EK1" s="37" t="s">
+      <c r="EM1" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="EL1" s="37" t="s">
+      <c r="EN1" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="EM1" s="37" t="s">
+      <c r="EO1" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="EN1" s="37" t="s">
+      <c r="EP1" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="EO1" s="37" t="s">
+      <c r="EQ1" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="EP1" s="37" t="s">
+      <c r="ER1" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="EQ1" s="37" t="s">
+      <c r="ES1" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="ER1" s="37" t="s">
+      <c r="ET1" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="ES1" s="37" t="s">
+      <c r="EU1" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="ET1" s="37" t="s">
+      <c r="EV1" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="EU1" s="37" t="s">
+      <c r="EW1" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="EV1" s="37" t="s">
+      <c r="EX1" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="EW1" s="37" t="s">
+      <c r="EY1" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="EX1" s="37" t="s">
+      <c r="EZ1" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="EY1" s="37" t="s">
+      <c r="FA1" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="EZ1" s="37" t="s">
+      <c r="FB1" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="FA1" s="37" t="s">
+      <c r="FC1" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="FB1" s="37" t="s">
+      <c r="FD1" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="FC1" s="37" t="s">
+      <c r="FE1" s="37" t="s">
         <v>533</v>
       </c>
-      <c r="FD1" s="37" t="s">
+      <c r="FF1" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="FE1" s="37" t="s">
+      <c r="FG1" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="FF1" s="37" t="s">
+      <c r="FH1" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="FG1" s="37" t="s">
+      <c r="FI1" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="FH1" s="37" t="s">
+      <c r="FJ1" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="FI1" s="37" t="s">
+      <c r="FK1" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="FJ1" s="37" t="s">
+      <c r="FL1" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="FK1" s="37" t="s">
+      <c r="FM1" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="FL1" s="37" t="s">
+      <c r="FN1" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="FM1" s="37" t="s">
+      <c r="FO1" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="FN1" s="37" t="s">
+      <c r="FP1" s="37" t="s">
         <v>544</v>
       </c>
-      <c r="FO1" s="37" t="s">
+      <c r="FQ1" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="FP1" s="37" t="s">
+      <c r="FR1" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="FQ1" s="37" t="s">
+      <c r="FS1" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="FR1" s="37" t="s">
+      <c r="FT1" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="FS1" s="37" t="s">
+      <c r="FU1" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="FT1" s="37" t="s">
+      <c r="FV1" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="FU1" s="37" t="s">
+      <c r="FW1" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="FV1" s="37" t="s">
+      <c r="FX1" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="FW1" s="37" t="s">
+      <c r="FY1" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="FX1" s="37" t="s">
+      <c r="FZ1" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="FY1" s="37" t="s">
+      <c r="GA1" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="FZ1" s="37" t="s">
+      <c r="GB1" s="37" t="s">
         <v>556</v>
       </c>
-      <c r="GA1" s="37" t="s">
+      <c r="GC1" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="GB1" s="37" t="s">
+      <c r="GD1" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="GC1" s="37" t="s">
+      <c r="GE1" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="GD1" s="37" t="s">
+      <c r="GF1" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="GE1" s="37" t="s">
+      <c r="GG1" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="GF1" s="37" t="s">
+      <c r="GH1" s="37" t="s">
         <v>562</v>
       </c>
-      <c r="GG1" s="37" t="s">
+      <c r="GI1" s="37" t="s">
         <v>563</v>
       </c>
-      <c r="GH1" s="37" t="s">
+      <c r="GJ1" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="GI1" s="37" t="s">
+      <c r="GK1" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="GJ1" s="37" t="s">
+      <c r="GL1" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="GK1" s="37" t="s">
+      <c r="GM1" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="GL1" s="37" t="s">
+      <c r="GN1" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="GM1" s="37" t="s">
+      <c r="GO1" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="GN1" s="37" t="s">
+      <c r="GP1" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="GO1" s="37" t="s">
+      <c r="GQ1" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="GP1" s="37" t="s">
+      <c r="GR1" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="GQ1" s="37" t="s">
+      <c r="GS1" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="GR1" s="37" t="s">
+      <c r="GT1" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="GS1" s="37" t="s">
+      <c r="GU1" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="GT1" s="37" t="s">
+      <c r="GV1" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="GU1" s="37" t="s">
+      <c r="GW1" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="GV1" s="37" t="s">
+      <c r="GX1" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="GW1" s="37" t="s">
+      <c r="GY1" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="GX1" s="37" t="s">
+      <c r="GZ1" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="GY1" s="37" t="s">
+      <c r="HA1" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="GZ1" s="37" t="s">
+      <c r="HB1" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="HA1" s="37" t="s">
+      <c r="HC1" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="HB1" s="37" t="s">
+      <c r="HD1" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="HC1" s="37" t="s">
+      <c r="HE1" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="HD1" s="37" t="s">
+      <c r="HF1" s="37" t="s">
         <v>586</v>
       </c>
-      <c r="HE1" s="37" t="s">
+      <c r="HG1" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="HF1" s="37" t="s">
+      <c r="HH1" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="HG1" s="37" t="s">
+      <c r="HI1" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="HH1" s="37" t="s">
+      <c r="HJ1" s="37" t="s">
         <v>590</v>
       </c>
-      <c r="HI1" s="37" t="s">
+      <c r="HK1" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="HJ1" s="37" t="s">
+      <c r="HL1" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="HK1" s="37" t="s">
+      <c r="HM1" s="37" t="s">
         <v>593</v>
       </c>
-      <c r="HL1" s="37" t="s">
+      <c r="HN1" s="37" t="s">
         <v>594</v>
       </c>
-      <c r="HM1" s="37" t="s">
+      <c r="HO1" s="37" t="s">
         <v>595</v>
       </c>
-      <c r="HN1" s="37" t="s">
+      <c r="HP1" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="HO1" s="37" t="s">
+      <c r="HQ1" s="37" t="s">
         <v>597</v>
       </c>
-      <c r="HP1" s="37" t="s">
+      <c r="HR1" s="37" t="s">
         <v>598</v>
-      </c>
-      <c r="HQ1" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="HR1" s="37" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:226" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9744,37 +9753,37 @@
         <v>76</v>
       </c>
       <c r="DO15" s="33" t="s">
+        <v>707</v>
+      </c>
+      <c r="DP15" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="DQ15" s="33" t="s">
         <v>496</v>
-      </c>
-      <c r="DP15" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="DQ15" s="33" t="s">
-        <v>498</v>
       </c>
       <c r="DR15" s="19" t="s">
         <v>129</v>
       </c>
       <c r="DS15" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="DT15" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="DU15" s="34" t="s">
         <v>499</v>
-      </c>
-      <c r="DT15" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="DU15" s="34" t="s">
-        <v>501</v>
       </c>
       <c r="DV15" s="18" t="s">
         <v>209</v>
       </c>
       <c r="DW15" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="DX15" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="DY15" s="22" t="s">
         <v>502</v>
-      </c>
-      <c r="DX15" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="DY15" s="22" t="s">
-        <v>504</v>
       </c>
       <c r="DZ15" s="20" t="s">
         <v>231</v>
@@ -19464,7 +19473,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="FW38" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>2.0833000000000001E-2</v>
       </c>
       <c r="FX38" s="12">
         <v>2.0833333333333332E-2</v>
@@ -20194,7 +20203,7 @@
         <v>221</v>
       </c>
       <c r="EA43" s="22" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="EB43" s="35" t="s">
         <v>82</v>
@@ -20212,7 +20221,7 @@
         <v>82</v>
       </c>
       <c r="EG43" s="22" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="EH43" s="35" t="s">
         <v>82</v>
@@ -20230,7 +20239,7 @@
         <v>82</v>
       </c>
       <c r="EM43" s="22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="EN43" s="35" t="s">
         <v>82</v>
@@ -20266,7 +20275,7 @@
         <v>82</v>
       </c>
       <c r="EY43" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="EZ43" s="36" t="s">
         <v>120</v>
@@ -20284,7 +20293,7 @@
         <v>120</v>
       </c>
       <c r="FE43" s="33" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="FF43" s="36" t="s">
         <v>120</v>
@@ -20302,7 +20311,7 @@
         <v>120</v>
       </c>
       <c r="FK43" s="33" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="FL43" s="36" t="s">
         <v>120</v>
@@ -20338,7 +20347,7 @@
         <v>120</v>
       </c>
       <c r="FW43" s="22" t="s">
-        <v>607</v>
+        <v>724</v>
       </c>
       <c r="FX43" t="s">
         <v>82</v>
@@ -20356,7 +20365,7 @@
         <v>82</v>
       </c>
       <c r="GC43" s="22" t="s">
-        <v>608</v>
+        <v>725</v>
       </c>
       <c r="GD43" t="s">
         <v>82</v>
@@ -20374,7 +20383,7 @@
         <v>82</v>
       </c>
       <c r="GI43" s="22" t="s">
-        <v>609</v>
+        <v>727</v>
       </c>
       <c r="GJ43" t="s">
         <v>82</v>
@@ -20410,7 +20419,7 @@
         <v>82</v>
       </c>
       <c r="GU43" s="41" t="s">
-        <v>610</v>
+        <v>739</v>
       </c>
       <c r="GV43" s="22" t="s">
         <v>221</v>
@@ -20428,7 +20437,7 @@
         <v>221</v>
       </c>
       <c r="HA43" s="41" t="s">
-        <v>611</v>
+        <v>742</v>
       </c>
       <c r="HB43" s="22" t="s">
         <v>221</v>
@@ -20446,7 +20455,7 @@
         <v>221</v>
       </c>
       <c r="HG43" s="41" t="s">
-        <v>612</v>
+        <v>743</v>
       </c>
       <c r="HH43" s="22" t="s">
         <v>221</v>
@@ -20877,7 +20886,7 @@
         <v>288</v>
       </c>
       <c r="EB44" s="22" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="EC44" s="35" t="s">
         <v>288</v>
@@ -20895,7 +20904,7 @@
         <v>288</v>
       </c>
       <c r="EH44" s="22" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="EI44" s="35" t="s">
         <v>288</v>
@@ -20913,7 +20922,7 @@
         <v>288</v>
       </c>
       <c r="EN44" s="22" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="EO44" s="35" t="s">
         <v>288</v>
@@ -20949,7 +20958,7 @@
         <v>120</v>
       </c>
       <c r="EZ44" s="33" t="s">
-        <v>616</v>
+        <v>720</v>
       </c>
       <c r="FA44" s="36" t="s">
         <v>120</v>
@@ -20967,7 +20976,7 @@
         <v>120</v>
       </c>
       <c r="FF44" s="33" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="FG44" s="36" t="s">
         <v>120</v>
@@ -20985,7 +20994,7 @@
         <v>120</v>
       </c>
       <c r="FL44" s="33" t="s">
-        <v>618</v>
+        <v>718</v>
       </c>
       <c r="FM44" s="36" t="s">
         <v>120</v>
@@ -21021,7 +21030,7 @@
         <v>82</v>
       </c>
       <c r="FX44" s="22" t="s">
-        <v>619</v>
+        <v>731</v>
       </c>
       <c r="FY44" t="s">
         <v>82</v>
@@ -21039,7 +21048,7 @@
         <v>82</v>
       </c>
       <c r="GD44" s="22" t="s">
-        <v>620</v>
+        <v>726</v>
       </c>
       <c r="GE44" t="s">
         <v>82</v>
@@ -21057,7 +21066,7 @@
         <v>82</v>
       </c>
       <c r="GJ44" s="22" t="s">
-        <v>621</v>
+        <v>728</v>
       </c>
       <c r="GK44" t="s">
         <v>82</v>
@@ -21093,7 +21102,7 @@
         <v>221</v>
       </c>
       <c r="GV44" s="41" t="s">
-        <v>622</v>
+        <v>740</v>
       </c>
       <c r="GW44" s="22" t="s">
         <v>221</v>
@@ -21111,7 +21120,7 @@
         <v>221</v>
       </c>
       <c r="HB44" s="41" t="s">
-        <v>623</v>
+        <v>741</v>
       </c>
       <c r="HC44" s="22" t="s">
         <v>221</v>
@@ -21129,7 +21138,7 @@
         <v>221</v>
       </c>
       <c r="HH44" s="41" t="s">
-        <v>624</v>
+        <v>744</v>
       </c>
       <c r="HI44" s="22" t="s">
         <v>221</v>
@@ -21560,7 +21569,7 @@
         <v>85</v>
       </c>
       <c r="EC45" s="22" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="ED45" s="35" t="s">
         <v>85</v>
@@ -21578,7 +21587,7 @@
         <v>85</v>
       </c>
       <c r="EI45" s="22" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="EJ45" s="35" t="s">
         <v>85</v>
@@ -21596,7 +21605,7 @@
         <v>85</v>
       </c>
       <c r="EO45" s="22" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="EP45" s="35" t="s">
         <v>85</v>
@@ -21632,7 +21641,7 @@
         <v>121</v>
       </c>
       <c r="FA45" s="33" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="FB45" s="36" t="s">
         <v>121</v>
@@ -21650,7 +21659,7 @@
         <v>121</v>
       </c>
       <c r="FG45" s="33" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="FH45" s="36" t="s">
         <v>121</v>
@@ -21668,7 +21677,7 @@
         <v>121</v>
       </c>
       <c r="FM45" s="33" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="FN45" s="36" t="s">
         <v>121</v>
@@ -21704,7 +21713,7 @@
         <v>203</v>
       </c>
       <c r="FY45" s="22" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="FZ45" t="s">
         <v>203</v>
@@ -21722,7 +21731,7 @@
         <v>203</v>
       </c>
       <c r="GE45" s="22" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="GF45" t="s">
         <v>203</v>
@@ -21740,7 +21749,7 @@
         <v>203</v>
       </c>
       <c r="GK45" s="22" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="GL45" t="s">
         <v>203</v>
@@ -21776,7 +21785,7 @@
         <v>222</v>
       </c>
       <c r="GW45" s="41" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="GX45" s="22" t="s">
         <v>222</v>
@@ -21794,7 +21803,7 @@
         <v>222</v>
       </c>
       <c r="HC45" s="41" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="HD45" s="22" t="s">
         <v>222</v>
@@ -21812,7 +21821,7 @@
         <v>222</v>
       </c>
       <c r="HI45" s="41" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="HJ45" s="22" t="s">
         <v>222</v>
@@ -22243,7 +22252,7 @@
         <v>85</v>
       </c>
       <c r="ED46" s="22" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="EE46" s="35" t="s">
         <v>85</v>
@@ -22261,7 +22270,7 @@
         <v>85</v>
       </c>
       <c r="EJ46" s="22" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="EK46" s="35" t="s">
         <v>85</v>
@@ -22279,7 +22288,7 @@
         <v>85</v>
       </c>
       <c r="EP46" s="22" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="EQ46" s="35" t="s">
         <v>85</v>
@@ -22315,7 +22324,7 @@
         <v>121</v>
       </c>
       <c r="FB46" s="33" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="FC46" s="36" t="s">
         <v>121</v>
@@ -22333,7 +22342,7 @@
         <v>121</v>
       </c>
       <c r="FH46" s="33" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="FI46" s="36" t="s">
         <v>121</v>
@@ -22351,7 +22360,7 @@
         <v>121</v>
       </c>
       <c r="FN46" s="33" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="FO46" s="36" t="s">
         <v>121</v>
@@ -22387,7 +22396,7 @@
         <v>203</v>
       </c>
       <c r="FZ46" s="22" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="GA46" t="s">
         <v>203</v>
@@ -22405,7 +22414,7 @@
         <v>203</v>
       </c>
       <c r="GF46" s="22" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="GG46" t="s">
         <v>203</v>
@@ -22423,7 +22432,7 @@
         <v>203</v>
       </c>
       <c r="GL46" s="22" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="GM46" t="s">
         <v>203</v>
@@ -22459,7 +22468,7 @@
         <v>222</v>
       </c>
       <c r="GX46" s="41" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="GY46" s="22" t="s">
         <v>222</v>
@@ -22477,7 +22486,7 @@
         <v>222</v>
       </c>
       <c r="HD46" s="41" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="HE46" s="22" t="s">
         <v>222</v>
@@ -22495,7 +22504,7 @@
         <v>222</v>
       </c>
       <c r="HJ46" s="41" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="HK46" s="22" t="s">
         <v>222</v>
@@ -22926,7 +22935,7 @@
         <v>87</v>
       </c>
       <c r="EE47" s="22" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="EF47" s="35" t="s">
         <v>87</v>
@@ -22944,7 +22953,7 @@
         <v>87</v>
       </c>
       <c r="EK47" s="22" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="EL47" s="35" t="s">
         <v>87</v>
@@ -22962,7 +22971,7 @@
         <v>87</v>
       </c>
       <c r="EQ47" s="22" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="ER47" s="35" t="s">
         <v>87</v>
@@ -22998,7 +23007,7 @@
         <v>122</v>
       </c>
       <c r="FC47" s="33" t="s">
-        <v>652</v>
+        <v>721</v>
       </c>
       <c r="FD47" s="36" t="s">
         <v>122</v>
@@ -23016,7 +23025,7 @@
         <v>122</v>
       </c>
       <c r="FI47" s="33" t="s">
-        <v>653</v>
+        <v>722</v>
       </c>
       <c r="FJ47" s="36" t="s">
         <v>122</v>
@@ -23034,7 +23043,7 @@
         <v>122</v>
       </c>
       <c r="FO47" s="33" t="s">
-        <v>654</v>
+        <v>723</v>
       </c>
       <c r="FP47" s="36" t="s">
         <v>122</v>
@@ -23070,7 +23079,7 @@
         <v>204</v>
       </c>
       <c r="GA47" s="22" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="GB47" t="s">
         <v>204</v>
@@ -23088,7 +23097,7 @@
         <v>204</v>
       </c>
       <c r="GG47" s="22" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="GH47" t="s">
         <v>204</v>
@@ -23106,7 +23115,7 @@
         <v>204</v>
       </c>
       <c r="GM47" s="22" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="GN47" t="s">
         <v>204</v>
@@ -23142,7 +23151,7 @@
         <v>223</v>
       </c>
       <c r="GY47" s="41" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="GZ47" s="22" t="s">
         <v>223</v>
@@ -23160,7 +23169,7 @@
         <v>223</v>
       </c>
       <c r="HE47" s="41" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="HF47" s="22" t="s">
         <v>223</v>
@@ -23178,7 +23187,7 @@
         <v>223</v>
       </c>
       <c r="HK47" s="41" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="HL47" s="22" t="s">
         <v>223</v>
@@ -23609,7 +23618,7 @@
         <v>88</v>
       </c>
       <c r="EF48" s="22" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="EG48" s="35" t="s">
         <v>88</v>
@@ -23627,7 +23636,7 @@
         <v>88</v>
       </c>
       <c r="EL48" s="22" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="EM48" s="35" t="s">
         <v>88</v>
@@ -23645,7 +23654,7 @@
         <v>88</v>
       </c>
       <c r="ER48" s="22" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="ES48" s="35" t="s">
         <v>88</v>
@@ -23681,7 +23690,7 @@
         <v>123</v>
       </c>
       <c r="FD48" s="33" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="FE48" s="36" t="s">
         <v>123</v>
@@ -23699,7 +23708,7 @@
         <v>123</v>
       </c>
       <c r="FJ48" s="33" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="FK48" s="36" t="s">
         <v>123</v>
@@ -23717,7 +23726,7 @@
         <v>123</v>
       </c>
       <c r="FP48" s="33" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="FQ48" s="36" t="s">
         <v>123</v>
@@ -23753,7 +23762,7 @@
         <v>205</v>
       </c>
       <c r="GB48" s="22" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="GC48" t="s">
         <v>205</v>
@@ -23771,7 +23780,7 @@
         <v>205</v>
       </c>
       <c r="GH48" s="22" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="GI48" t="s">
         <v>205</v>
@@ -23789,7 +23798,7 @@
         <v>205</v>
       </c>
       <c r="GN48" s="22" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="GO48" t="s">
         <v>205</v>
@@ -23825,7 +23834,7 @@
         <v>223</v>
       </c>
       <c r="GZ48" s="41" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="HA48" s="22" t="s">
         <v>223</v>
@@ -23843,7 +23852,7 @@
         <v>223</v>
       </c>
       <c r="HF48" s="41" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="HG48" s="22" t="s">
         <v>223</v>
@@ -23861,7 +23870,7 @@
         <v>223</v>
       </c>
       <c r="HL48" s="41" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="HM48" s="22" t="s">
         <v>223</v>
@@ -25198,7 +25207,7 @@
         <v>343</v>
       </c>
       <c r="EA55" s="22" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="EB55" s="30" t="s">
         <v>310</v>
@@ -25216,7 +25225,7 @@
         <v>310</v>
       </c>
       <c r="EG55" s="22" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="EH55" s="30" t="s">
         <v>310</v>
@@ -25234,7 +25243,7 @@
         <v>310</v>
       </c>
       <c r="EM55" s="22" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="EN55" s="30" t="s">
         <v>310</v>
@@ -25270,7 +25279,7 @@
         <v>310</v>
       </c>
       <c r="EY55" s="33" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="EZ55" s="4" t="s">
         <v>321</v>
@@ -25288,7 +25297,7 @@
         <v>321</v>
       </c>
       <c r="FE55" s="33" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="FF55" s="4" t="s">
         <v>321</v>
@@ -25306,7 +25315,7 @@
         <v>321</v>
       </c>
       <c r="FK55" s="33" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="FL55" s="4" t="s">
         <v>321</v>
@@ -25342,7 +25351,7 @@
         <v>321</v>
       </c>
       <c r="FW55" s="22" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="FX55" t="s">
         <v>332</v>
@@ -25360,7 +25369,7 @@
         <v>332</v>
       </c>
       <c r="GC55" s="22" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="GD55" t="s">
         <v>332</v>
@@ -25378,7 +25387,7 @@
         <v>332</v>
       </c>
       <c r="GI55" s="22" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="GJ55" t="s">
         <v>332</v>
@@ -25414,7 +25423,7 @@
         <v>332</v>
       </c>
       <c r="GU55" s="41" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="GV55" s="22" t="s">
         <v>343</v>
@@ -25432,7 +25441,7 @@
         <v>343</v>
       </c>
       <c r="HA55" s="41" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="HB55" s="22" t="s">
         <v>343</v>
@@ -25450,7 +25459,7 @@
         <v>343</v>
       </c>
       <c r="HG55" s="41" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="HH55" s="22" t="s">
         <v>343</v>
@@ -25884,7 +25893,7 @@
         <v>312</v>
       </c>
       <c r="EC56" s="22" t="s">
-        <v>685</v>
+        <v>716</v>
       </c>
       <c r="ED56" s="30" t="s">
         <v>312</v>
@@ -25902,7 +25911,7 @@
         <v>312</v>
       </c>
       <c r="EI56" s="22" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="EJ56" s="30" t="s">
         <v>312</v>
@@ -25920,7 +25929,7 @@
         <v>312</v>
       </c>
       <c r="EO56" s="22" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="EP56" s="30" t="s">
         <v>312</v>
@@ -25956,7 +25965,7 @@
         <v>323</v>
       </c>
       <c r="FA56" s="33" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="FB56" s="4" t="s">
         <v>323</v>
@@ -25974,7 +25983,7 @@
         <v>323</v>
       </c>
       <c r="FG56" s="33" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="FH56" s="4" t="s">
         <v>323</v>
@@ -25992,7 +26001,7 @@
         <v>323</v>
       </c>
       <c r="FM56" s="33" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="FN56" s="4" t="s">
         <v>323</v>
@@ -26028,7 +26037,7 @@
         <v>333</v>
       </c>
       <c r="FY56" s="22" t="s">
-        <v>691</v>
+        <v>732</v>
       </c>
       <c r="FZ56" t="s">
         <v>333</v>
@@ -26046,7 +26055,7 @@
         <v>333</v>
       </c>
       <c r="GE56" s="22" t="s">
-        <v>692</v>
+        <v>733</v>
       </c>
       <c r="GF56" t="s">
         <v>333</v>
@@ -26064,7 +26073,7 @@
         <v>333</v>
       </c>
       <c r="GK56" s="22" t="s">
-        <v>693</v>
+        <v>737</v>
       </c>
       <c r="GL56" t="s">
         <v>333</v>
@@ -26100,7 +26109,7 @@
         <v>344</v>
       </c>
       <c r="GW56" s="41" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
       <c r="GX56" s="22" t="s">
         <v>344</v>
@@ -26118,7 +26127,7 @@
         <v>344</v>
       </c>
       <c r="HC56" s="41" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="HD56" s="22" t="s">
         <v>344</v>
@@ -26136,7 +26145,7 @@
         <v>344</v>
       </c>
       <c r="HI56" s="41" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="HJ56" s="22" t="s">
         <v>344</v>
@@ -26570,7 +26579,7 @@
         <v>314</v>
       </c>
       <c r="EE57" s="22" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="EF57" s="30" t="s">
         <v>314</v>
@@ -26588,7 +26597,7 @@
         <v>314</v>
       </c>
       <c r="EK57" s="22" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="EL57" s="30" t="s">
         <v>314</v>
@@ -26606,7 +26615,7 @@
         <v>314</v>
       </c>
       <c r="EQ57" s="22" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="ER57" s="30" t="s">
         <v>314</v>
@@ -26642,7 +26651,7 @@
         <v>124</v>
       </c>
       <c r="FC57" s="33" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="FD57" s="4" t="s">
         <v>124</v>
@@ -26660,7 +26669,7 @@
         <v>124</v>
       </c>
       <c r="FI57" s="33" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="FJ57" s="4" t="s">
         <v>124</v>
@@ -26678,7 +26687,7 @@
         <v>124</v>
       </c>
       <c r="FO57" s="33" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
       <c r="FP57" s="4" t="s">
         <v>124</v>
@@ -26713,8 +26722,8 @@
       <c r="FZ57" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="GA57" s="34" t="s">
-        <v>703</v>
+      <c r="GA57" s="44" t="s">
+        <v>736</v>
       </c>
       <c r="GB57" s="15" t="s">
         <v>334</v>
@@ -26732,7 +26741,7 @@
         <v>334</v>
       </c>
       <c r="GG57" s="34" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="GH57" s="15" t="s">
         <v>334</v>
@@ -26750,7 +26759,7 @@
         <v>334</v>
       </c>
       <c r="GM57" s="34" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="GN57" s="15" t="s">
         <v>334</v>
@@ -26786,7 +26795,7 @@
         <v>345</v>
       </c>
       <c r="GY57" s="41" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="GZ57" s="22" t="s">
         <v>345</v>
@@ -26804,7 +26813,7 @@
         <v>345</v>
       </c>
       <c r="HE57" s="41" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="HF57" s="22" t="s">
         <v>345</v>
@@ -26822,7 +26831,7 @@
         <v>345</v>
       </c>
       <c r="HK57" s="41" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="HL57" s="22" t="s">
         <v>345</v>
@@ -27259,7 +27268,7 @@
         <v>310</v>
       </c>
       <c r="EH58" s="22" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="EI58" s="30" t="s">
         <v>310</v>
@@ -27277,7 +27286,7 @@
         <v>310</v>
       </c>
       <c r="EN58" s="22" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="EO58" s="30" t="s">
         <v>310</v>
@@ -27313,7 +27322,7 @@
         <v>322</v>
       </c>
       <c r="EZ58" s="33" t="s">
-        <v>712</v>
+        <v>677</v>
       </c>
       <c r="FA58" s="4" t="s">
         <v>322</v>
@@ -27331,7 +27340,7 @@
         <v>322</v>
       </c>
       <c r="FF58" s="33" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="FG58" s="4" t="s">
         <v>322</v>
@@ -27349,7 +27358,7 @@
         <v>322</v>
       </c>
       <c r="FL58" s="33" t="s">
-        <v>714</v>
+        <v>679</v>
       </c>
       <c r="FM58" s="4" t="s">
         <v>322</v>
@@ -27385,7 +27394,7 @@
         <v>332</v>
       </c>
       <c r="FX58" s="22" t="s">
-        <v>715</v>
+        <v>680</v>
       </c>
       <c r="FY58" t="s">
         <v>332</v>
@@ -27403,7 +27412,7 @@
         <v>332</v>
       </c>
       <c r="GD58" s="22" t="s">
-        <v>716</v>
+        <v>681</v>
       </c>
       <c r="GE58" t="s">
         <v>332</v>
@@ -27421,7 +27430,7 @@
         <v>332</v>
       </c>
       <c r="GJ58" s="22" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="GK58" t="s">
         <v>332</v>
@@ -27457,7 +27466,7 @@
         <v>343</v>
       </c>
       <c r="GV58" s="41" t="s">
-        <v>718</v>
+        <v>683</v>
       </c>
       <c r="GW58" s="22" t="s">
         <v>343</v>
@@ -27475,7 +27484,7 @@
         <v>343</v>
       </c>
       <c r="HB58" s="41" t="s">
-        <v>719</v>
+        <v>684</v>
       </c>
       <c r="HC58" s="22" t="s">
         <v>343</v>
@@ -27493,7 +27502,7 @@
         <v>343</v>
       </c>
       <c r="HH58" s="41" t="s">
-        <v>720</v>
+        <v>685</v>
       </c>
       <c r="HI58" s="22" t="s">
         <v>343</v>
@@ -27927,7 +27936,7 @@
         <v>317</v>
       </c>
       <c r="ED59" s="22" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="EE59" s="30" t="s">
         <v>317</v>
@@ -27945,7 +27954,7 @@
         <v>317</v>
       </c>
       <c r="EJ59" s="22" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="EK59" s="30" t="s">
         <v>317</v>
@@ -27963,7 +27972,7 @@
         <v>317</v>
       </c>
       <c r="EP59" s="22" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="EQ59" s="30" t="s">
         <v>317</v>
@@ -27999,7 +28008,7 @@
         <v>324</v>
       </c>
       <c r="FB59" s="33" t="s">
-        <v>724</v>
+        <v>689</v>
       </c>
       <c r="FC59" s="4" t="s">
         <v>324</v>
@@ -28017,7 +28026,7 @@
         <v>324</v>
       </c>
       <c r="FH59" s="33" t="s">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="FI59" s="4" t="s">
         <v>324</v>
@@ -28035,7 +28044,7 @@
         <v>324</v>
       </c>
       <c r="FN59" s="33" t="s">
-        <v>726</v>
+        <v>691</v>
       </c>
       <c r="FO59" s="4" t="s">
         <v>324</v>
@@ -28070,8 +28079,8 @@
       <c r="FY59" t="s">
         <v>335</v>
       </c>
-      <c r="FZ59" s="22" t="s">
-        <v>727</v>
+      <c r="FZ59" s="43" t="s">
+        <v>734</v>
       </c>
       <c r="GA59" t="s">
         <v>335</v>
@@ -28089,7 +28098,7 @@
         <v>335</v>
       </c>
       <c r="GF59" s="22" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="GG59" t="s">
         <v>335</v>
@@ -28143,7 +28152,7 @@
         <v>346</v>
       </c>
       <c r="GX59" s="41" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
       <c r="GY59" s="22" t="s">
         <v>346</v>
@@ -28161,7 +28170,7 @@
         <v>346</v>
       </c>
       <c r="HD59" s="41" t="s">
-        <v>731</v>
+        <v>693</v>
       </c>
       <c r="HE59" s="22" t="s">
         <v>346</v>
@@ -28179,7 +28188,7 @@
         <v>346</v>
       </c>
       <c r="HJ59" s="41" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="HK59" s="22" t="s">
         <v>346</v>
@@ -28613,7 +28622,7 @@
         <v>319</v>
       </c>
       <c r="EF60" s="22" t="s">
-        <v>733</v>
+        <v>695</v>
       </c>
       <c r="EG60" s="30" t="s">
         <v>319</v>
@@ -28631,7 +28640,7 @@
         <v>319</v>
       </c>
       <c r="EL60" s="22" t="s">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="EM60" s="30" t="s">
         <v>319</v>
@@ -28649,7 +28658,7 @@
         <v>319</v>
       </c>
       <c r="ER60" s="22" t="s">
-        <v>735</v>
+        <v>697</v>
       </c>
       <c r="ES60" s="30" t="s">
         <v>319</v>
@@ -28685,7 +28694,7 @@
         <v>325</v>
       </c>
       <c r="FD60" s="33" t="s">
-        <v>736</v>
+        <v>698</v>
       </c>
       <c r="FE60" s="4" t="s">
         <v>325</v>
@@ -28703,7 +28712,7 @@
         <v>325</v>
       </c>
       <c r="FJ60" s="33" t="s">
-        <v>737</v>
+        <v>699</v>
       </c>
       <c r="FK60" s="4" t="s">
         <v>325</v>
@@ -28721,7 +28730,7 @@
         <v>325</v>
       </c>
       <c r="FP60" s="33" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="FQ60" s="4" t="s">
         <v>325</v>
@@ -28756,8 +28765,8 @@
       <c r="GA60" t="s">
         <v>336</v>
       </c>
-      <c r="GB60" s="22" t="s">
-        <v>739</v>
+      <c r="GB60" s="45" t="s">
+        <v>701</v>
       </c>
       <c r="GC60" t="s">
         <v>336</v>
@@ -28775,7 +28784,7 @@
         <v>336</v>
       </c>
       <c r="GH60" s="22" t="s">
-        <v>740</v>
+        <v>702</v>
       </c>
       <c r="GI60" t="s">
         <v>336</v>
@@ -28793,7 +28802,7 @@
         <v>336</v>
       </c>
       <c r="GN60" s="22" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="GO60" t="s">
         <v>336</v>
@@ -28829,7 +28838,7 @@
         <v>347</v>
       </c>
       <c r="GZ60" s="41" t="s">
-        <v>742</v>
+        <v>704</v>
       </c>
       <c r="HA60" s="22" t="s">
         <v>347</v>
@@ -28847,7 +28856,7 @@
         <v>347</v>
       </c>
       <c r="HF60" s="41" t="s">
-        <v>743</v>
+        <v>705</v>
       </c>
       <c r="HG60" s="22" t="s">
         <v>347</v>
@@ -28865,7 +28874,7 @@
         <v>347</v>
       </c>
       <c r="HL60" s="41" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
       <c r="HM60" s="22" t="s">
         <v>347</v>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E6F60-E1B6-154A-9C56-4CF88D2A87C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636CFCB-DE65-1540-8538-13C7E96D512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="500" windowWidth="21940" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B636CFCB-DE65-1540-8538-13C7E96D512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E528D98-E2B8-DD46-8C97-49C43DB5D468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="500" windowWidth="21940" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="746">
   <si>
     <t># Initial population</t>
   </si>
@@ -2329,6 +2329,9 @@
   </si>
   <si>
     <t>rtruncnorm(10000, (1+((6.5-1)*0.75)), (15+((17-15)*0.75)), (8.8+((13.8-8.8)*0.75)), 1.3)</t>
+  </si>
+  <si>
+    <t>Infrastructure_per_head</t>
   </si>
 </sst>
 </file>
@@ -2875,9 +2878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:HR121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HL60" sqref="HL60"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="HQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="HR120" sqref="HR120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45370,28 +45373,681 @@
       </c>
     </row>
     <row r="120" spans="1:226" x14ac:dyDescent="0.2">
-      <c r="AK120" s="4"/>
-      <c r="AL120" s="4"/>
-      <c r="AM120" s="4"/>
-      <c r="AN120" s="4"/>
-      <c r="AO120" s="4"/>
-      <c r="AP120" s="4"/>
-      <c r="AQ120" s="4"/>
-      <c r="AR120" s="4"/>
-      <c r="AS120" s="4"/>
-      <c r="AT120" s="4"/>
-      <c r="AU120" s="4"/>
-      <c r="AV120" s="4"/>
-      <c r="AW120" s="4"/>
-      <c r="AX120" s="4"/>
-      <c r="AY120" s="4"/>
-      <c r="AZ120" s="4"/>
-      <c r="BA120" s="15"/>
-      <c r="BB120" s="15"/>
-      <c r="BC120" s="15"/>
-      <c r="BD120" s="15"/>
-      <c r="BE120" s="15"/>
-      <c r="BF120" s="15"/>
+      <c r="A120" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1</v>
+      </c>
+      <c r="L120" s="2">
+        <v>1</v>
+      </c>
+      <c r="M120" s="2">
+        <v>1</v>
+      </c>
+      <c r="N120" s="2">
+        <v>1</v>
+      </c>
+      <c r="O120" s="2">
+        <v>1</v>
+      </c>
+      <c r="P120" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>1</v>
+      </c>
+      <c r="R120" s="2">
+        <v>1</v>
+      </c>
+      <c r="S120" s="2">
+        <v>1</v>
+      </c>
+      <c r="T120" s="2">
+        <v>1</v>
+      </c>
+      <c r="U120" s="2">
+        <v>1</v>
+      </c>
+      <c r="V120" s="2">
+        <v>1</v>
+      </c>
+      <c r="W120" s="2">
+        <v>1</v>
+      </c>
+      <c r="X120" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y120" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY120" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY120" s="2">
+        <v>1</v>
+      </c>
+      <c r="BZ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CD120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CK120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CL120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CM120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CQ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CS120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CU120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CV120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CW120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CX120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CY120" s="2">
+        <v>1</v>
+      </c>
+      <c r="CZ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DA120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DD120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DH120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DI120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DJ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DK120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DL120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DM120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DN120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DP120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DQ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DR120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DS120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DT120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DU120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DV120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DW120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DX120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DY120" s="2">
+        <v>1</v>
+      </c>
+      <c r="DZ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EA120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="ED120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EH120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EJ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EK120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EL120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EM120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EN120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EO120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EP120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EQ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="ER120" s="2">
+        <v>1</v>
+      </c>
+      <c r="ES120" s="2">
+        <v>1</v>
+      </c>
+      <c r="ET120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EU120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EV120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EW120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EX120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EY120" s="2">
+        <v>1</v>
+      </c>
+      <c r="EZ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FA120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FD120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FH120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FI120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FJ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FK120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FL120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FN120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FO120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FP120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FQ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FR120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FS120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FT120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FU120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FV120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FW120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FX120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FY120" s="2">
+        <v>1</v>
+      </c>
+      <c r="FZ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GA120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GD120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GE120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GH120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GI120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GJ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GK120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GL120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GM120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GN120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GO120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GP120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GQ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GR120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GS120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GT120" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU120" s="22">
+        <v>1</v>
+      </c>
+      <c r="GV120" s="22">
+        <v>1</v>
+      </c>
+      <c r="GW120" s="22">
+        <v>1</v>
+      </c>
+      <c r="GX120" s="22">
+        <v>1</v>
+      </c>
+      <c r="GY120" s="22">
+        <v>1</v>
+      </c>
+      <c r="GZ120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HA120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HB120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HC120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HD120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HE120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HF120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HG120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HH120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HI120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HJ120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HK120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HL120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HM120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HN120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HO120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HP120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HQ120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HR120" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:226" x14ac:dyDescent="0.2">
       <c r="AK121" s="4"/>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E528D98-E2B8-DD46-8C97-49C43DB5D468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8AE0B4-426D-0D49-872D-93CD08E0D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="500" windowWidth="21940" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="26820" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6063" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6491" uniqueCount="762">
   <si>
     <t># Initial population</t>
   </si>
@@ -2332,6 +2332,54 @@
   </si>
   <si>
     <t>Infrastructure_per_head</t>
+  </si>
+  <si>
+    <t>Past_G_Current_growth_100_imp_All</t>
+  </si>
+  <si>
+    <t>Past_G_Current_growth_25_imp_All</t>
+  </si>
+  <si>
+    <t>Past_G_Current_growth_50_imp_All</t>
+  </si>
+  <si>
+    <t>Past_G_Current_growth_75_imp_All</t>
+  </si>
+  <si>
+    <t>Past_S_Current_growth_25_imp_All</t>
+  </si>
+  <si>
+    <t>Past_S_Current_growth_50_imp_All</t>
+  </si>
+  <si>
+    <t>Past_S_Current_growth_75_imp_All</t>
+  </si>
+  <si>
+    <t>Past_S_Current_growth_100_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_G_Current_growth_100_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_G_Current_growth_25_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_G_Current_growth_50_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_G_Current_growth_75_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_S_Current_growth_100_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_S_Current_growth_25_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_S_Current_growth_50_imp_All</t>
+  </si>
+  <si>
+    <t>CLM_S_Current_growth_75_imp_All</t>
   </si>
 </sst>
 </file>
@@ -2470,7 +2518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2487,11 +2535,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2562,6 +2630,29 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2876,11 +2967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
-  <dimension ref="A1:HR121"/>
+  <dimension ref="A1:IH121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="HQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HR120" sqref="HR120"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EF1" sqref="EF1:IE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2972,17 +3063,31 @@
     <col min="182" max="182" width="20.1640625" customWidth="1"/>
     <col min="183" max="183" width="18.33203125" customWidth="1"/>
     <col min="184" max="184" width="25.33203125" customWidth="1"/>
-    <col min="185" max="201" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="185" max="201" width="43.1640625" customWidth="1"/>
+    <col min="202" max="202" width="47.33203125" customWidth="1"/>
     <col min="203" max="203" width="24" style="22" customWidth="1"/>
     <col min="204" max="204" width="22" style="22" customWidth="1"/>
     <col min="205" max="205" width="24.33203125" style="22" customWidth="1"/>
     <col min="206" max="206" width="23.5" style="22" customWidth="1"/>
     <col min="207" max="207" width="21.1640625" style="22" customWidth="1"/>
-    <col min="208" max="226" width="42.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="208" max="226" width="42.1640625" style="22" customWidth="1"/>
+    <col min="227" max="227" width="42.1640625" style="48" customWidth="1"/>
+    <col min="228" max="230" width="42.1640625" style="22" customWidth="1"/>
+    <col min="231" max="231" width="21" style="53" customWidth="1"/>
+    <col min="232" max="232" width="17.33203125" customWidth="1"/>
+    <col min="233" max="233" width="14.33203125" customWidth="1"/>
+    <col min="234" max="234" width="24.33203125" customWidth="1"/>
+    <col min="235" max="235" width="22.83203125" style="57" customWidth="1"/>
+    <col min="236" max="236" width="20.1640625" style="36" customWidth="1"/>
+    <col min="237" max="237" width="22.83203125" style="36" customWidth="1"/>
+    <col min="238" max="238" width="21.83203125" style="36" customWidth="1"/>
+    <col min="239" max="239" width="22" style="53" customWidth="1"/>
+    <col min="240" max="240" width="23.6640625" customWidth="1"/>
+    <col min="241" max="241" width="26" customWidth="1"/>
+    <col min="242" max="242" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:226" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:242" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>73</v>
       </c>
@@ -3661,8 +3766,56 @@
       <c r="HR1" s="37" t="s">
         <v>598</v>
       </c>
+      <c r="HS1" s="46" t="s">
+        <v>747</v>
+      </c>
+      <c r="HT1" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="HU1" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="HV1" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="HW1" s="46" t="s">
+        <v>750</v>
+      </c>
+      <c r="HX1" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="HY1" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="HZ1" s="37" t="s">
+        <v>753</v>
+      </c>
+      <c r="IA1" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="IB1" s="37" t="s">
+        <v>756</v>
+      </c>
+      <c r="IC1" s="37" t="s">
+        <v>757</v>
+      </c>
+      <c r="ID1" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="IE1" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="IF1" s="37" t="s">
+        <v>760</v>
+      </c>
+      <c r="IG1" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="IH1" s="37" t="s">
+        <v>758</v>
+      </c>
     </row>
-    <row r="2" spans="1:226" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:242" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>233</v>
       </c>
@@ -4338,8 +4491,56 @@
       <c r="HR2" s="31">
         <v>12</v>
       </c>
+      <c r="HS2" s="47">
+        <v>12</v>
+      </c>
+      <c r="HT2" s="31">
+        <v>12</v>
+      </c>
+      <c r="HU2" s="31">
+        <v>12</v>
+      </c>
+      <c r="HV2" s="31">
+        <v>12</v>
+      </c>
+      <c r="HW2" s="47">
+        <v>12</v>
+      </c>
+      <c r="HX2" s="31">
+        <v>12</v>
+      </c>
+      <c r="HY2" s="31">
+        <v>12</v>
+      </c>
+      <c r="HZ2" s="31">
+        <v>12</v>
+      </c>
+      <c r="IA2" s="56">
+        <v>12</v>
+      </c>
+      <c r="IB2" s="38">
+        <v>12</v>
+      </c>
+      <c r="IC2" s="38">
+        <v>12</v>
+      </c>
+      <c r="ID2" s="38">
+        <v>12</v>
+      </c>
+      <c r="IE2" s="47">
+        <v>12</v>
+      </c>
+      <c r="IF2" s="31">
+        <v>12</v>
+      </c>
+      <c r="IG2" s="31">
+        <v>12</v>
+      </c>
+      <c r="IH2" s="31">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -4392,7 +4593,7 @@
       <c r="DC3" s="22"/>
       <c r="DD3" s="22"/>
     </row>
-    <row r="4" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>234</v>
       </c>
@@ -5071,8 +5272,56 @@
       <c r="HR4" s="22">
         <v>2931658</v>
       </c>
+      <c r="HS4" s="48">
+        <v>2931658</v>
+      </c>
+      <c r="HT4" s="22">
+        <v>2931658</v>
+      </c>
+      <c r="HU4" s="22">
+        <v>2931658</v>
+      </c>
+      <c r="HV4" s="22">
+        <v>2931658</v>
+      </c>
+      <c r="HW4" s="53">
+        <v>1805806</v>
+      </c>
+      <c r="HX4">
+        <v>1805806</v>
+      </c>
+      <c r="HY4">
+        <v>1805806</v>
+      </c>
+      <c r="HZ4">
+        <v>1805806</v>
+      </c>
+      <c r="IA4" s="58">
+        <v>2803178</v>
+      </c>
+      <c r="IB4" s="39">
+        <v>2803178</v>
+      </c>
+      <c r="IC4" s="39">
+        <v>2803178</v>
+      </c>
+      <c r="ID4" s="39">
+        <v>2803178</v>
+      </c>
+      <c r="IE4" s="53">
+        <v>2070822</v>
+      </c>
+      <c r="IF4">
+        <v>2070822</v>
+      </c>
+      <c r="IG4">
+        <v>2070822</v>
+      </c>
+      <c r="IH4">
+        <v>2070822</v>
+      </c>
     </row>
-    <row r="5" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>286</v>
       </c>
@@ -5751,8 +6000,56 @@
       <c r="HR5" s="22">
         <v>1974212</v>
       </c>
+      <c r="HS5" s="48">
+        <v>1974212</v>
+      </c>
+      <c r="HT5" s="22">
+        <v>1974212</v>
+      </c>
+      <c r="HU5" s="22">
+        <v>1974212</v>
+      </c>
+      <c r="HV5" s="22">
+        <v>1974212</v>
+      </c>
+      <c r="HW5" s="53">
+        <v>1212609</v>
+      </c>
+      <c r="HX5">
+        <v>1212609</v>
+      </c>
+      <c r="HY5">
+        <v>1212609</v>
+      </c>
+      <c r="HZ5">
+        <v>1212609</v>
+      </c>
+      <c r="IA5" s="58">
+        <v>2586971</v>
+      </c>
+      <c r="IB5" s="39">
+        <v>2586971</v>
+      </c>
+      <c r="IC5" s="39">
+        <v>2586971</v>
+      </c>
+      <c r="ID5" s="39">
+        <v>2586971</v>
+      </c>
+      <c r="IE5" s="53">
+        <v>2070822</v>
+      </c>
+      <c r="IF5">
+        <v>2070822</v>
+      </c>
+      <c r="IG5">
+        <v>2070822</v>
+      </c>
+      <c r="IH5">
+        <v>2070822</v>
+      </c>
     </row>
-    <row r="6" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>235</v>
       </c>
@@ -6431,8 +6728,56 @@
       <c r="HR6" s="22">
         <v>2563862</v>
       </c>
+      <c r="HS6" s="48">
+        <v>2563862</v>
+      </c>
+      <c r="HT6" s="22">
+        <v>2563862</v>
+      </c>
+      <c r="HU6" s="22">
+        <v>2563862</v>
+      </c>
+      <c r="HV6" s="22">
+        <v>2563862</v>
+      </c>
+      <c r="HW6" s="53">
+        <v>1525444</v>
+      </c>
+      <c r="HX6">
+        <v>1525444</v>
+      </c>
+      <c r="HY6">
+        <v>1525444</v>
+      </c>
+      <c r="HZ6">
+        <v>1525444</v>
+      </c>
+      <c r="IA6" s="58">
+        <v>1508363</v>
+      </c>
+      <c r="IB6" s="39">
+        <v>1508363</v>
+      </c>
+      <c r="IC6" s="39">
+        <v>1508363</v>
+      </c>
+      <c r="ID6" s="39">
+        <v>1508363</v>
+      </c>
+      <c r="IE6" s="53">
+        <v>1915971</v>
+      </c>
+      <c r="IF6">
+        <v>1915971</v>
+      </c>
+      <c r="IG6">
+        <v>1915971</v>
+      </c>
+      <c r="IH6">
+        <v>1915971</v>
+      </c>
     </row>
-    <row r="7" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>236</v>
       </c>
@@ -7111,8 +7456,56 @@
       <c r="HR7" s="22">
         <v>1533797</v>
       </c>
+      <c r="HS7" s="48">
+        <v>1533797</v>
+      </c>
+      <c r="HT7" s="22">
+        <v>1533797</v>
+      </c>
+      <c r="HU7" s="22">
+        <v>1533797</v>
+      </c>
+      <c r="HV7" s="22">
+        <v>1533797</v>
+      </c>
+      <c r="HW7" s="53">
+        <v>967746</v>
+      </c>
+      <c r="HX7">
+        <v>967746</v>
+      </c>
+      <c r="HY7">
+        <v>967746</v>
+      </c>
+      <c r="HZ7">
+        <v>967746</v>
+      </c>
+      <c r="IA7" s="58">
+        <v>1146066</v>
+      </c>
+      <c r="IB7" s="39">
+        <v>1146066</v>
+      </c>
+      <c r="IC7" s="39">
+        <v>1146066</v>
+      </c>
+      <c r="ID7" s="39">
+        <v>1146066</v>
+      </c>
+      <c r="IE7" s="53">
+        <v>1147386</v>
+      </c>
+      <c r="IF7">
+        <v>1147386</v>
+      </c>
+      <c r="IG7">
+        <v>1147386</v>
+      </c>
+      <c r="IH7">
+        <v>1147386</v>
+      </c>
     </row>
-    <row r="8" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>237</v>
       </c>
@@ -7791,8 +8184,56 @@
       <c r="HR8" s="22">
         <v>15741790</v>
       </c>
+      <c r="HS8" s="48">
+        <v>15741790</v>
+      </c>
+      <c r="HT8" s="22">
+        <v>15741790</v>
+      </c>
+      <c r="HU8" s="22">
+        <v>15741790</v>
+      </c>
+      <c r="HV8" s="22">
+        <v>15741790</v>
+      </c>
+      <c r="HW8" s="53">
+        <v>9293369</v>
+      </c>
+      <c r="HX8">
+        <v>9293369</v>
+      </c>
+      <c r="HY8">
+        <v>9293369</v>
+      </c>
+      <c r="HZ8">
+        <v>9293369</v>
+      </c>
+      <c r="IA8" s="58">
+        <v>10864998</v>
+      </c>
+      <c r="IB8" s="39">
+        <v>10864998</v>
+      </c>
+      <c r="IC8" s="39">
+        <v>10864998</v>
+      </c>
+      <c r="ID8" s="39">
+        <v>10864998</v>
+      </c>
+      <c r="IE8" s="53">
+        <v>14049629</v>
+      </c>
+      <c r="IF8">
+        <v>14049629</v>
+      </c>
+      <c r="IG8">
+        <v>14049629</v>
+      </c>
+      <c r="IH8">
+        <v>14049629</v>
+      </c>
     </row>
-    <row r="9" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>238</v>
       </c>
@@ -8471,8 +8912,56 @@
       <c r="HR9" s="22">
         <v>5555576</v>
       </c>
+      <c r="HS9" s="48">
+        <v>5555576</v>
+      </c>
+      <c r="HT9" s="22">
+        <v>5555576</v>
+      </c>
+      <c r="HU9" s="22">
+        <v>5555576</v>
+      </c>
+      <c r="HV9" s="22">
+        <v>5555576</v>
+      </c>
+      <c r="HW9" s="53">
+        <v>3390900</v>
+      </c>
+      <c r="HX9">
+        <v>3390900</v>
+      </c>
+      <c r="HY9">
+        <v>3390900</v>
+      </c>
+      <c r="HZ9">
+        <v>3390900</v>
+      </c>
+      <c r="IA9" s="58">
+        <v>3055888</v>
+      </c>
+      <c r="IB9" s="39">
+        <v>3055888</v>
+      </c>
+      <c r="IC9" s="39">
+        <v>3055888</v>
+      </c>
+      <c r="ID9" s="39">
+        <v>3055888</v>
+      </c>
+      <c r="IE9" s="53">
+        <v>3048715</v>
+      </c>
+      <c r="IF9">
+        <v>3048715</v>
+      </c>
+      <c r="IG9">
+        <v>3048715</v>
+      </c>
+      <c r="IH9">
+        <v>3048715</v>
+      </c>
     </row>
-    <row r="10" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -8519,7 +9008,7 @@
       <c r="DC10" s="22"/>
       <c r="DD10" s="22"/>
     </row>
-    <row r="11" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>7</v>
       </c>
@@ -8573,7 +9062,7 @@
       <c r="DC11" s="22"/>
       <c r="DD11" s="22"/>
     </row>
-    <row r="12" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>239</v>
       </c>
@@ -9305,8 +9794,60 @@
       <c r="HR12" s="4">
         <v>0.16666666666666666</v>
       </c>
+      <c r="HS12" s="49">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="HT12" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="HU12" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="HV12" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="HW12" s="49">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="HX12" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="HY12" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="HZ12" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="IA12" s="57">
+        <v>0.17</v>
+      </c>
+      <c r="IB12" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="IC12" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="ID12" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="IE12" s="49">
+        <f t="shared" ref="IE12:IH12" si="3">1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="IF12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="IG12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="IH12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
-    <row r="13" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -9353,7 +9894,7 @@
       <c r="DC13" s="22"/>
       <c r="DD13" s="22"/>
     </row>
-    <row r="14" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>8</v>
       </c>
@@ -9403,7 +9944,7 @@
       <c r="DC14" s="22"/>
       <c r="DD14" s="22"/>
     </row>
-    <row r="15" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>240</v>
       </c>
@@ -10079,8 +10620,56 @@
       <c r="HR15" s="22" t="s">
         <v>111</v>
       </c>
+      <c r="HS15" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="HT15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="HU15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="HV15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="HW15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="HX15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="HY15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="HZ15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="IA15" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="IB15" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="IC15" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="ID15" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="IE15" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="IF15" t="s">
+        <v>74</v>
+      </c>
+      <c r="IG15" t="s">
+        <v>74</v>
+      </c>
+      <c r="IH15" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="16" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>241</v>
       </c>
@@ -10756,8 +11345,56 @@
       <c r="HR16" s="22" t="s">
         <v>217</v>
       </c>
+      <c r="HS16" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="HT16" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="HU16" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="HV16" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="HW16" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="HX16" t="s">
+        <v>174</v>
+      </c>
+      <c r="HY16" t="s">
+        <v>174</v>
+      </c>
+      <c r="HZ16" t="s">
+        <v>174</v>
+      </c>
+      <c r="IA16" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="IB16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="IC16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="ID16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="IE16" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="IF16" t="s">
+        <v>75</v>
+      </c>
+      <c r="IG16" t="s">
+        <v>75</v>
+      </c>
+      <c r="IH16" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="17" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -10804,7 +11441,7 @@
       <c r="DC17" s="22"/>
       <c r="DD17" s="22"/>
     </row>
-    <row r="18" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>9</v>
       </c>
@@ -10854,7 +11491,7 @@
       <c r="DC18" s="22"/>
       <c r="DD18" s="22"/>
     </row>
-    <row r="19" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>242</v>
       </c>
@@ -11530,8 +12167,56 @@
       <c r="HR19" s="22">
         <v>0</v>
       </c>
+      <c r="HS19" s="48">
+        <v>0</v>
+      </c>
+      <c r="HT19" s="22">
+        <v>0</v>
+      </c>
+      <c r="HU19" s="22">
+        <v>0</v>
+      </c>
+      <c r="HV19" s="22">
+        <v>0</v>
+      </c>
+      <c r="HW19" s="51">
+        <v>0</v>
+      </c>
+      <c r="HX19" s="15">
+        <v>0</v>
+      </c>
+      <c r="HY19" s="15">
+        <v>0</v>
+      </c>
+      <c r="HZ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="IA19" s="57">
+        <v>0</v>
+      </c>
+      <c r="IB19" s="36">
+        <v>0</v>
+      </c>
+      <c r="IC19" s="36">
+        <v>0</v>
+      </c>
+      <c r="ID19" s="36">
+        <v>0</v>
+      </c>
+      <c r="IE19" s="53">
+        <v>0</v>
+      </c>
+      <c r="IF19">
+        <v>0</v>
+      </c>
+      <c r="IG19">
+        <v>0</v>
+      </c>
+      <c r="IH19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>289</v>
       </c>
@@ -12210,8 +12895,56 @@
       <c r="HR20" s="22">
         <v>0</v>
       </c>
+      <c r="HS20" s="48">
+        <v>0</v>
+      </c>
+      <c r="HT20" s="22">
+        <v>0</v>
+      </c>
+      <c r="HU20" s="22">
+        <v>0</v>
+      </c>
+      <c r="HV20" s="22">
+        <v>0</v>
+      </c>
+      <c r="HW20" s="51">
+        <v>0</v>
+      </c>
+      <c r="HX20" s="15">
+        <v>0</v>
+      </c>
+      <c r="HY20" s="15">
+        <v>0</v>
+      </c>
+      <c r="HZ20" s="15">
+        <v>0</v>
+      </c>
+      <c r="IA20" s="57">
+        <v>0</v>
+      </c>
+      <c r="IB20" s="36">
+        <v>0</v>
+      </c>
+      <c r="IC20" s="36">
+        <v>0</v>
+      </c>
+      <c r="ID20" s="36">
+        <v>0</v>
+      </c>
+      <c r="IE20" s="53">
+        <v>0</v>
+      </c>
+      <c r="IF20">
+        <v>0</v>
+      </c>
+      <c r="IG20">
+        <v>0</v>
+      </c>
+      <c r="IH20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>243</v>
       </c>
@@ -12887,8 +13620,56 @@
       <c r="HR21" s="22">
         <v>0</v>
       </c>
+      <c r="HS21" s="48">
+        <v>0</v>
+      </c>
+      <c r="HT21" s="22">
+        <v>0</v>
+      </c>
+      <c r="HU21" s="22">
+        <v>0</v>
+      </c>
+      <c r="HV21" s="22">
+        <v>0</v>
+      </c>
+      <c r="HW21" s="51">
+        <v>0</v>
+      </c>
+      <c r="HX21" s="15">
+        <v>0</v>
+      </c>
+      <c r="HY21" s="15">
+        <v>0</v>
+      </c>
+      <c r="HZ21" s="15">
+        <v>0</v>
+      </c>
+      <c r="IA21" s="57">
+        <v>0</v>
+      </c>
+      <c r="IB21" s="36">
+        <v>0</v>
+      </c>
+      <c r="IC21" s="36">
+        <v>0</v>
+      </c>
+      <c r="ID21" s="36">
+        <v>0</v>
+      </c>
+      <c r="IE21" s="53">
+        <v>0</v>
+      </c>
+      <c r="IF21">
+        <v>0</v>
+      </c>
+      <c r="IG21">
+        <v>0</v>
+      </c>
+      <c r="IH21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>244</v>
       </c>
@@ -13564,8 +14345,56 @@
       <c r="HR22" s="22">
         <v>0</v>
       </c>
+      <c r="HS22" s="48">
+        <v>0</v>
+      </c>
+      <c r="HT22" s="22">
+        <v>0</v>
+      </c>
+      <c r="HU22" s="22">
+        <v>0</v>
+      </c>
+      <c r="HV22" s="22">
+        <v>0</v>
+      </c>
+      <c r="HW22" s="51">
+        <v>0</v>
+      </c>
+      <c r="HX22" s="15">
+        <v>0</v>
+      </c>
+      <c r="HY22" s="15">
+        <v>0</v>
+      </c>
+      <c r="HZ22" s="15">
+        <v>0</v>
+      </c>
+      <c r="IA22" s="57">
+        <v>0</v>
+      </c>
+      <c r="IB22" s="36">
+        <v>0</v>
+      </c>
+      <c r="IC22" s="36">
+        <v>0</v>
+      </c>
+      <c r="ID22" s="36">
+        <v>0</v>
+      </c>
+      <c r="IE22" s="53">
+        <v>0</v>
+      </c>
+      <c r="IF22">
+        <v>0</v>
+      </c>
+      <c r="IG22">
+        <v>0</v>
+      </c>
+      <c r="IH22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
@@ -13612,7 +14441,7 @@
       <c r="DC23" s="22"/>
       <c r="DD23" s="22"/>
     </row>
-    <row r="24" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>10</v>
       </c>
@@ -13662,7 +14491,7 @@
       <c r="DC24" s="22"/>
       <c r="DD24" s="22"/>
     </row>
-    <row r="25" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
@@ -13712,7 +14541,7 @@
       <c r="DC25" s="22"/>
       <c r="DD25" s="22"/>
     </row>
-    <row r="26" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
@@ -13762,7 +14591,7 @@
       <c r="DC26" s="22"/>
       <c r="DD26" s="22"/>
     </row>
-    <row r="27" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>245</v>
       </c>
@@ -13774,11 +14603,11 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27:AD27" si="3">0.04/12</f>
+        <f t="shared" ref="D27:AD27" si="4">0.04/12</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="F27" s="7">
@@ -13794,91 +14623,91 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="T27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="U27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="V27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="W27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="X27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="Y27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="Z27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="AA27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="AB27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="AC27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="AD27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="AE27" s="4" t="s">
@@ -14186,99 +15015,99 @@
         <v>218</v>
       </c>
       <c r="EA27" s="7">
-        <f t="shared" ref="EA27:EX27" si="4">0.04/12</f>
+        <f t="shared" ref="EA27:EX27" si="5">0.04/12</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EB27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EC27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="ED27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EE27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EF27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EG27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EH27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EI27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EJ27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EK27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EL27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EM27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EN27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EO27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EP27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EQ27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="ER27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="ES27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="ET27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EU27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EV27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EW27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EX27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="EY27" s="36" t="s">
@@ -14497,8 +15326,60 @@
       <c r="HR27" s="22" t="s">
         <v>218</v>
       </c>
+      <c r="HS27" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="HT27" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="HU27" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="HV27" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="HW27" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="HX27" t="s">
+        <v>175</v>
+      </c>
+      <c r="HY27" t="s">
+        <v>175</v>
+      </c>
+      <c r="HZ27" t="s">
+        <v>175</v>
+      </c>
+      <c r="IA27" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="IB27" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="IC27" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="ID27" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="IE27" s="61">
+        <f t="shared" ref="IE27:IH27" si="6">0.04/12</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="IF27" s="7">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="IG27" s="7">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="IH27" s="7">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>246</v>
       </c>
@@ -14510,11 +15391,11 @@
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:AD28" si="5">0.54/12</f>
+        <f t="shared" ref="D28:AD28" si="7">0.54/12</f>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="F28">
@@ -14530,91 +15411,91 @@
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="O28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="R28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="S28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="T28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="U28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="V28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="W28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="X28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="AE28" s="4" t="s">
@@ -14922,99 +15803,99 @@
         <v>219</v>
       </c>
       <c r="EA28">
-        <f t="shared" ref="EA28:EX28" si="6">0.54/12</f>
+        <f t="shared" ref="EA28:EX28" si="8">0.54/12</f>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EB28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EC28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="ED28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EE28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EF28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EG28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EH28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EI28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EJ28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EK28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EL28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EM28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EN28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EO28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EP28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EQ28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="ER28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="ES28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="ET28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EU28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EV28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EW28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EX28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5000000000000005E-2</v>
       </c>
       <c r="EY28" s="36" t="s">
@@ -15233,8 +16114,60 @@
       <c r="HR28" s="22" t="s">
         <v>219</v>
       </c>
+      <c r="HS28" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="HT28" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="HU28" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="HV28" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="HW28" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="HX28" t="s">
+        <v>176</v>
+      </c>
+      <c r="HY28" t="s">
+        <v>176</v>
+      </c>
+      <c r="HZ28" t="s">
+        <v>176</v>
+      </c>
+      <c r="IA28" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="IB28" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="IC28" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="ID28" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="IE28" s="53">
+        <f t="shared" ref="IE28:IH28" si="9">0.54/12</f>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="IF28">
+        <f t="shared" si="9"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="IG28">
+        <f t="shared" si="9"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="IH28">
+        <f t="shared" si="9"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -15281,7 +16214,7 @@
       <c r="DC29" s="22"/>
       <c r="DD29" s="22"/>
     </row>
-    <row r="30" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>15</v>
       </c>
@@ -15331,7 +16264,7 @@
       <c r="DC30" s="22"/>
       <c r="DD30" s="22"/>
     </row>
-    <row r="31" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>247</v>
       </c>
@@ -16010,8 +16943,56 @@
       <c r="HR31" s="22" t="s">
         <v>220</v>
       </c>
+      <c r="HS31" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="HT31" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="HU31" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="HV31" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="HW31" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="HX31" t="s">
+        <v>177</v>
+      </c>
+      <c r="HY31" t="s">
+        <v>177</v>
+      </c>
+      <c r="HZ31" t="s">
+        <v>177</v>
+      </c>
+      <c r="IA31" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="IB31" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="IC31" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="ID31" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="IE31" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="IF31" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="IG31" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="IH31" s="35" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="32" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>248</v>
       </c>
@@ -16690,8 +17671,56 @@
       <c r="HR32" s="22" t="s">
         <v>116</v>
       </c>
+      <c r="HS32" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="HT32" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="HU32" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="HV32" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="HW32" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="HX32" t="s">
+        <v>178</v>
+      </c>
+      <c r="HY32" t="s">
+        <v>178</v>
+      </c>
+      <c r="HZ32" t="s">
+        <v>178</v>
+      </c>
+      <c r="IA32" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="IB32" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="IC32" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="ID32" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="IE32" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="IF32" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="IG32" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="IH32" s="35" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="33" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>249</v>
       </c>
@@ -17370,8 +18399,56 @@
       <c r="HR33" s="22" t="s">
         <v>117</v>
       </c>
+      <c r="HS33" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="HT33" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="HU33" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="HV33" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="HW33" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="HX33" t="s">
+        <v>179</v>
+      </c>
+      <c r="HY33" t="s">
+        <v>179</v>
+      </c>
+      <c r="HZ33" t="s">
+        <v>179</v>
+      </c>
+      <c r="IA33" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="IB33" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="IC33" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="ID33" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="IE33" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="IF33" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="IG33" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="IH33" s="35" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="34" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>250</v>
       </c>
@@ -18050,8 +19127,56 @@
       <c r="HR34" s="22" t="s">
         <v>118</v>
       </c>
+      <c r="HS34" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="HT34" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="HU34" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="HV34" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="HW34" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="HX34" t="s">
+        <v>180</v>
+      </c>
+      <c r="HY34" t="s">
+        <v>180</v>
+      </c>
+      <c r="HZ34" t="s">
+        <v>180</v>
+      </c>
+      <c r="IA34" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="IB34" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="IC34" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="ID34" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="IE34" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="IF34" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="IG34" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="IH34" s="35" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="35" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
@@ -18098,7 +19223,7 @@
       <c r="DC35" s="22"/>
       <c r="DD35" s="22"/>
     </row>
-    <row r="36" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>20</v>
       </c>
@@ -18148,7 +19273,7 @@
       <c r="DC36" s="22"/>
       <c r="DD36" s="22"/>
     </row>
-    <row r="37" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>251</v>
       </c>
@@ -18160,11 +19285,11 @@
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:AD37" si="7">1/108</f>
+        <f t="shared" ref="D37:AD37" si="10">1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="F37">
@@ -18180,91 +19305,91 @@
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="L37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="M37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="N37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="O37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="R37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="S37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="T37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="U37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="V37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="W37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="X37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="AE37" s="14">
@@ -18572,99 +19697,99 @@
         <v>119</v>
       </c>
       <c r="EA37">
-        <f t="shared" ref="EA37:EX37" si="8">1/108</f>
+        <f t="shared" ref="EA37:EX37" si="11">1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EB37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EC37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="ED37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EE37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EF37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EG37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EH37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EI37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EJ37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EK37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EL37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EM37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EN37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EO37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EP37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EQ37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="ER37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="ES37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="ET37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EU37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EV37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EW37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EX37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="EY37" s="40">
@@ -18883,8 +20008,60 @@
       <c r="HR37" s="22" t="s">
         <v>119</v>
       </c>
+      <c r="HS37" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="HT37" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="HU37" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="HV37" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="HW37" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="HX37" t="s">
+        <v>119</v>
+      </c>
+      <c r="HY37" t="s">
+        <v>119</v>
+      </c>
+      <c r="HZ37" t="s">
+        <v>119</v>
+      </c>
+      <c r="IA37" s="59">
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="IB37" s="40">
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="IC37" s="40">
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="ID37" s="40">
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="IE37" s="53">
+        <f t="shared" ref="IE37:IH37" si="12">1/108</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="IF37">
+        <f t="shared" si="12"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="IG37">
+        <f t="shared" si="12"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="IH37">
+        <f t="shared" si="12"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>252</v>
       </c>
@@ -18896,11 +20073,11 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:AD38" si="9">1/48</f>
+        <f t="shared" ref="D38:AD38" si="13">1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F38">
@@ -18916,91 +20093,91 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="O38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="R38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="S38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="T38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="U38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="V38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="W38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="X38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AE38" s="14">
@@ -19308,99 +20485,99 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EA38">
-        <f t="shared" ref="EA38:EX38" si="10">1/48</f>
+        <f t="shared" ref="EA38:EX38" si="14">1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EB38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EC38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="ED38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EE38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EF38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EG38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EH38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EI38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EJ38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EK38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EL38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EM38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EN38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EO38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EP38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EQ38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="ER38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="ES38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="ET38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EU38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EV38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EW38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EX38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="EY38" s="40">
@@ -19619,8 +20796,60 @@
       <c r="HR38" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="HS38" s="50">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="HT38" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="HU38" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="HV38" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="HW38" s="54">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="HX38" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="HY38" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="HZ38" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="IA38" s="59">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="IB38" s="40">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="IC38" s="40">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="ID38" s="40">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="IE38" s="53">
+        <f t="shared" ref="IE38:IH38" si="15">1/48</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="IF38">
+        <f t="shared" si="15"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="IG38">
+        <f t="shared" si="15"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="IH38">
+        <f t="shared" si="15"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
@@ -19667,7 +20896,7 @@
       <c r="DC39" s="22"/>
       <c r="DD39" s="22"/>
     </row>
-    <row r="40" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>23</v>
       </c>
@@ -19717,7 +20946,7 @@
       <c r="DC40" s="22"/>
       <c r="DD40" s="22"/>
     </row>
-    <row r="41" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -19764,7 +20993,7 @@
       <c r="DC41" s="22"/>
       <c r="DD41" s="22"/>
     </row>
-    <row r="42" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>24</v>
       </c>
@@ -19814,7 +21043,7 @@
       <c r="DC42" s="22"/>
       <c r="DD42" s="22"/>
     </row>
-    <row r="43" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>253</v>
       </c>
@@ -20493,8 +21722,56 @@
       <c r="HR43" s="22" t="s">
         <v>221</v>
       </c>
+      <c r="HS43" s="41" t="s">
+        <v>739</v>
+      </c>
+      <c r="HT43" s="41" t="s">
+        <v>742</v>
+      </c>
+      <c r="HU43" s="41" t="s">
+        <v>743</v>
+      </c>
+      <c r="HV43" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="HW43" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="HX43" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="HY43" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="HZ43" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="IA43" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="IB43" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="IC43" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="ID43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="IE43" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="IF43" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="IG43" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="IH43" s="6" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="44" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>254</v>
       </c>
@@ -21173,8 +22450,56 @@
       <c r="HR44" s="22" t="s">
         <v>221</v>
       </c>
+      <c r="HS44" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="HT44" s="41" t="s">
+        <v>741</v>
+      </c>
+      <c r="HU44" s="41" t="s">
+        <v>744</v>
+      </c>
+      <c r="HV44" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="HW44" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="HX44" s="22" t="s">
+        <v>726</v>
+      </c>
+      <c r="HY44" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="HZ44" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="IA44" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="IB44" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="IC44" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="ID44" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="IE44" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="IF44" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="IG44" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="IH44" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="45" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>255</v>
       </c>
@@ -21853,8 +23178,56 @@
       <c r="HR45" s="22" t="s">
         <v>222</v>
       </c>
+      <c r="HS45" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="HT45" s="41" t="s">
+        <v>618</v>
+      </c>
+      <c r="HU45" s="41" t="s">
+        <v>619</v>
+      </c>
+      <c r="HV45" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="HW45" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="HX45" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="HY45" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="HZ45" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="IA45" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="IB45" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="IC45" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="ID45" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="IE45" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="IF45" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="IG45" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="IH45" s="6" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="46" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>256</v>
       </c>
@@ -22533,8 +23906,56 @@
       <c r="HR46" s="22" t="s">
         <v>222</v>
       </c>
+      <c r="HS46" s="41" t="s">
+        <v>629</v>
+      </c>
+      <c r="HT46" s="41" t="s">
+        <v>630</v>
+      </c>
+      <c r="HU46" s="41" t="s">
+        <v>631</v>
+      </c>
+      <c r="HV46" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW46" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="HX46" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="HY46" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="HZ46" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="IA46" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="IB46" s="33" t="s">
+        <v>624</v>
+      </c>
+      <c r="IC46" s="33" t="s">
+        <v>625</v>
+      </c>
+      <c r="ID46" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="IE46" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="IF46" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="IG46" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="IH46" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="47" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>257</v>
       </c>
@@ -23213,8 +24634,56 @@
       <c r="HR47" s="22" t="s">
         <v>223</v>
       </c>
+      <c r="HS47" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="HT47" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="HU47" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="HV47" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW47" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="HX47" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="HY47" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="HZ47" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="IA47" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="IB47" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="IC47" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="ID47" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="IE47" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="IF47" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="IG47" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="IH47" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="48" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>258</v>
       </c>
@@ -23893,8 +25362,56 @@
       <c r="HR48" s="20" t="s">
         <v>230</v>
       </c>
+      <c r="HS48" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="HT48" s="41" t="s">
+        <v>651</v>
+      </c>
+      <c r="HU48" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="HV48" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="HW48" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="HX48" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="HY48" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="HZ48" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="IA48" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="IB48" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="IC48" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="ID48" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="IE48" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="IF48" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="IG48" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="IH48" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="49" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -23941,7 +25458,7 @@
       <c r="DC49" s="22"/>
       <c r="DD49" s="22"/>
     </row>
-    <row r="50" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>30</v>
       </c>
@@ -23991,7 +25508,7 @@
       <c r="DC50" s="22"/>
       <c r="DD50" s="22"/>
     </row>
-    <row r="51" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>259</v>
       </c>
@@ -24670,8 +26187,56 @@
       <c r="HR51" s="15">
         <v>0.42</v>
       </c>
+      <c r="HS51" s="51">
+        <v>0.42</v>
+      </c>
+      <c r="HT51" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="HU51" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="HV51" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="HW51" s="51">
+        <v>0.42</v>
+      </c>
+      <c r="HX51" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="HY51" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="HZ51" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="IA51" s="57">
+        <v>0.42</v>
+      </c>
+      <c r="IB51" s="36">
+        <v>0.42</v>
+      </c>
+      <c r="IC51" s="36">
+        <v>0.42</v>
+      </c>
+      <c r="ID51" s="36">
+        <v>0.42</v>
+      </c>
+      <c r="IE51" s="53">
+        <v>0.42</v>
+      </c>
+      <c r="IF51">
+        <v>0.42</v>
+      </c>
+      <c r="IG51">
+        <v>0.42</v>
+      </c>
+      <c r="IH51">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="52" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -24718,7 +26283,7 @@
       <c r="DC52" s="22"/>
       <c r="DD52" s="22"/>
     </row>
-    <row r="53" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>32</v>
       </c>
@@ -24768,7 +26333,7 @@
       <c r="DC53" s="22"/>
       <c r="DD53" s="22"/>
     </row>
-    <row r="54" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>33</v>
       </c>
@@ -24818,7 +26383,7 @@
       <c r="DC54" s="22"/>
       <c r="DD54" s="22"/>
     </row>
-    <row r="55" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>260</v>
       </c>
@@ -25497,8 +27062,56 @@
       <c r="HR55" s="22" t="s">
         <v>343</v>
       </c>
+      <c r="HS55" s="41" t="s">
+        <v>662</v>
+      </c>
+      <c r="HT55" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="HU55" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="HV55" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="HW55" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="HX55" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="HY55" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="HZ55" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="IA55" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="IB55" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="IC55" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="ID55" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="IE55" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="IF55" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="IG55" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="IH55" s="20" t="s">
+        <v>311</v>
+      </c>
     </row>
-    <row r="56" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>261</v>
       </c>
@@ -26177,8 +27790,56 @@
       <c r="HR56" s="22" t="s">
         <v>344</v>
       </c>
+      <c r="HS56" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="HT56" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="HU56" s="41" t="s">
+        <v>670</v>
+      </c>
+      <c r="HV56" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="HW56" s="22" t="s">
+        <v>732</v>
+      </c>
+      <c r="HX56" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="HY56" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="HZ56" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="IA56" s="33" t="s">
+        <v>665</v>
+      </c>
+      <c r="IB56" s="33" t="s">
+        <v>666</v>
+      </c>
+      <c r="IC56" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="ID56" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="IE56" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="IF56" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="IG56" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="IH56" s="20" t="s">
+        <v>313</v>
+      </c>
     </row>
-    <row r="57" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
         <v>262</v>
       </c>
@@ -26857,8 +28518,56 @@
       <c r="HR57" s="22" t="s">
         <v>345</v>
       </c>
+      <c r="HS57" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="HT57" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="HU57" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="HV57" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="HW57" s="44" t="s">
+        <v>736</v>
+      </c>
+      <c r="HX57" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="HY57" s="34" t="s">
+        <v>738</v>
+      </c>
+      <c r="HZ57" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="IA57" s="33" t="s">
+        <v>671</v>
+      </c>
+      <c r="IB57" s="33" t="s">
+        <v>672</v>
+      </c>
+      <c r="IC57" s="33" t="s">
+        <v>673</v>
+      </c>
+      <c r="ID57" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="IE57" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="IF57" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="IG57" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="IH57" s="20" t="s">
+        <v>315</v>
+      </c>
     </row>
-    <row r="58" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
         <v>263</v>
       </c>
@@ -27537,8 +29246,56 @@
       <c r="HR58" s="22" t="s">
         <v>343</v>
       </c>
+      <c r="HS58" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="HT58" s="41" t="s">
+        <v>684</v>
+      </c>
+      <c r="HU58" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="HV58" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="HW58" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="HX58" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="HY58" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="HZ58" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="IA58" s="33" t="s">
+        <v>677</v>
+      </c>
+      <c r="IB58" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="IC58" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="ID58" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="IE58" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="IF58" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="IG58" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="IH58" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
-    <row r="59" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
         <v>264</v>
       </c>
@@ -28217,8 +29974,56 @@
       <c r="HR59" s="22" t="s">
         <v>346</v>
       </c>
+      <c r="HS59" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="HT59" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="HU59" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="HV59" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="HW59" s="43" t="s">
+        <v>734</v>
+      </c>
+      <c r="HX59" s="22" t="s">
+        <v>735</v>
+      </c>
+      <c r="HY59" s="22" t="s">
+        <v>729</v>
+      </c>
+      <c r="HZ59" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="IA59" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="IB59" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="IC59" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="ID59" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="IE59" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="IF59" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="IG59" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="IH59" s="20" t="s">
+        <v>318</v>
+      </c>
     </row>
-    <row r="60" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
         <v>265</v>
       </c>
@@ -28897,8 +30702,56 @@
       <c r="HR60" s="20" t="s">
         <v>353</v>
       </c>
+      <c r="HS60" s="41" t="s">
+        <v>704</v>
+      </c>
+      <c r="HT60" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="HU60" s="41" t="s">
+        <v>706</v>
+      </c>
+      <c r="HV60" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="HW60" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="HX60" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="HY60" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="HZ60" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="IA60" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="IB60" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="IC60" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="ID60" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="IE60" s="22" t="s">
+        <v>695</v>
+      </c>
+      <c r="IF60" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="IG60" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="IH60" s="20" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="61" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
@@ -28946,7 +30799,7 @@
       <c r="DD61" s="22"/>
       <c r="GO61" s="15"/>
     </row>
-    <row r="62" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
         <v>40</v>
       </c>
@@ -28997,7 +30850,7 @@
       <c r="DD62" s="22"/>
       <c r="GO62" s="15"/>
     </row>
-    <row r="63" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
         <v>287</v>
       </c>
@@ -29212,8 +31065,20 @@
         <v>0.25</v>
       </c>
       <c r="GO63" s="15"/>
+      <c r="IE63" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="IF63">
+        <v>0.25</v>
+      </c>
+      <c r="IG63">
+        <v>0.25</v>
+      </c>
+      <c r="IH63">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="64" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
@@ -29261,7 +31126,7 @@
       <c r="DD64" s="22"/>
       <c r="GO64" s="15"/>
     </row>
-    <row r="65" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
         <v>41</v>
       </c>
@@ -29312,7 +31177,7 @@
       <c r="DD65" s="22"/>
       <c r="GO65" s="15"/>
     </row>
-    <row r="66" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
         <v>42</v>
       </c>
@@ -29363,7 +31228,7 @@
       <c r="DD66" s="22"/>
       <c r="GO66" s="15"/>
     </row>
-    <row r="67" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>266</v>
       </c>
@@ -30042,8 +31907,56 @@
       <c r="HR67" s="22">
         <v>1</v>
       </c>
+      <c r="HS67" s="48">
+        <v>1</v>
+      </c>
+      <c r="HT67" s="22">
+        <v>1</v>
+      </c>
+      <c r="HU67" s="22">
+        <v>1</v>
+      </c>
+      <c r="HV67" s="22">
+        <v>1</v>
+      </c>
+      <c r="HW67" s="51">
+        <v>1</v>
+      </c>
+      <c r="HX67" s="15">
+        <v>1</v>
+      </c>
+      <c r="HY67" s="15">
+        <v>1</v>
+      </c>
+      <c r="HZ67" s="15">
+        <v>1</v>
+      </c>
+      <c r="IA67" s="57">
+        <v>1</v>
+      </c>
+      <c r="IB67" s="36">
+        <v>1</v>
+      </c>
+      <c r="IC67" s="36">
+        <v>1</v>
+      </c>
+      <c r="ID67" s="36">
+        <v>1</v>
+      </c>
+      <c r="IE67" s="53">
+        <v>1</v>
+      </c>
+      <c r="IF67">
+        <v>1</v>
+      </c>
+      <c r="IG67">
+        <v>1</v>
+      </c>
+      <c r="IH67">
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>267</v>
       </c>
@@ -30719,8 +32632,56 @@
       <c r="HR68" s="22">
         <v>0.5</v>
       </c>
+      <c r="HS68" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="HT68" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="HU68" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="HV68" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="HW68" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="HX68" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="HY68" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="HZ68" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="IA68" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="IB68" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="IC68" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="ID68" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="IE68" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="IF68">
+        <v>0.5</v>
+      </c>
+      <c r="IG68">
+        <v>0.5</v>
+      </c>
+      <c r="IH68">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="69" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
@@ -30779,7 +32740,7 @@
       <c r="DI69" s="22"/>
       <c r="DJ69" s="22"/>
     </row>
-    <row r="70" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>44</v>
       </c>
@@ -30841,7 +32802,7 @@
       <c r="DI70" s="22"/>
       <c r="DJ70" s="22"/>
     </row>
-    <row r="71" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>268</v>
       </c>
@@ -31517,8 +33478,56 @@
       <c r="HR71" s="22">
         <v>20</v>
       </c>
+      <c r="HS71" s="48">
+        <v>20</v>
+      </c>
+      <c r="HT71" s="22">
+        <v>20</v>
+      </c>
+      <c r="HU71" s="22">
+        <v>20</v>
+      </c>
+      <c r="HV71" s="22">
+        <v>20</v>
+      </c>
+      <c r="HW71" s="51">
+        <v>20</v>
+      </c>
+      <c r="HX71" s="15">
+        <v>20</v>
+      </c>
+      <c r="HY71" s="15">
+        <v>20</v>
+      </c>
+      <c r="HZ71" s="15">
+        <v>20</v>
+      </c>
+      <c r="IA71" s="57">
+        <v>20</v>
+      </c>
+      <c r="IB71" s="36">
+        <v>20</v>
+      </c>
+      <c r="IC71" s="36">
+        <v>20</v>
+      </c>
+      <c r="ID71" s="36">
+        <v>20</v>
+      </c>
+      <c r="IE71" s="53">
+        <v>40</v>
+      </c>
+      <c r="IF71">
+        <v>40</v>
+      </c>
+      <c r="IG71">
+        <v>40</v>
+      </c>
+      <c r="IH71">
+        <v>40</v>
+      </c>
     </row>
-    <row r="72" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
@@ -31577,7 +33586,7 @@
       <c r="DI72" s="22"/>
       <c r="DJ72" s="22"/>
     </row>
-    <row r="73" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>45</v>
       </c>
@@ -31639,7 +33648,7 @@
       <c r="DI73" s="22"/>
       <c r="DJ73" s="22"/>
     </row>
-    <row r="74" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>269</v>
       </c>
@@ -32318,8 +34327,56 @@
       <c r="HR74" s="22" t="s">
         <v>224</v>
       </c>
+      <c r="HS74" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="HT74" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="HU74" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="HV74" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="HW74" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="HX74" t="s">
+        <v>206</v>
+      </c>
+      <c r="HY74" t="s">
+        <v>206</v>
+      </c>
+      <c r="HZ74" t="s">
+        <v>206</v>
+      </c>
+      <c r="IA74" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="IB74" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="IC74" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="ID74" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="IE74" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="IF74">
+        <v>0.1</v>
+      </c>
+      <c r="IG74">
+        <v>0.1</v>
+      </c>
+      <c r="IH74">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="75" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
         <v>270</v>
       </c>
@@ -32998,8 +35055,56 @@
       <c r="HR75" s="22" t="s">
         <v>125</v>
       </c>
+      <c r="HS75" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="HT75" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="HU75" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="HV75" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="HW75" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="HX75" t="s">
+        <v>207</v>
+      </c>
+      <c r="HY75" t="s">
+        <v>207</v>
+      </c>
+      <c r="HZ75" t="s">
+        <v>207</v>
+      </c>
+      <c r="IA75" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="IB75" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="IC75" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="ID75" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="IE75" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="IF75">
+        <v>0.2</v>
+      </c>
+      <c r="IG75">
+        <v>0.2</v>
+      </c>
+      <c r="IH75">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="76" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>271</v>
       </c>
@@ -33678,8 +35783,56 @@
       <c r="HR76" s="22" t="s">
         <v>127</v>
       </c>
+      <c r="HS76" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="HT76" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="HU76" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="HV76" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="HW76" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="HX76" t="s">
+        <v>208</v>
+      </c>
+      <c r="HY76" t="s">
+        <v>208</v>
+      </c>
+      <c r="HZ76" t="s">
+        <v>208</v>
+      </c>
+      <c r="IA76" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="IB76" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="IC76" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="ID76" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="IE76" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="IF76">
+        <v>0.3</v>
+      </c>
+      <c r="IG76">
+        <v>0.3</v>
+      </c>
+      <c r="IH76">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="77" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -33738,7 +35891,7 @@
       <c r="DI77" s="22"/>
       <c r="DJ77" s="22"/>
     </row>
-    <row r="78" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>49</v>
       </c>
@@ -33800,7 +35953,7 @@
       <c r="DI78" s="22"/>
       <c r="DJ78" s="22"/>
     </row>
-    <row r="79" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>272</v>
       </c>
@@ -34476,8 +36629,56 @@
       <c r="HR79" s="22">
         <v>0.5</v>
       </c>
+      <c r="HS79" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="HT79" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="HU79" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="HV79" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="HW79" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="HX79">
+        <v>0.5</v>
+      </c>
+      <c r="HY79">
+        <v>0.5</v>
+      </c>
+      <c r="HZ79">
+        <v>0.5</v>
+      </c>
+      <c r="IA79" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="IB79" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="IC79" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="ID79" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="IE79" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="IF79">
+        <v>0.5</v>
+      </c>
+      <c r="IG79">
+        <v>0.5</v>
+      </c>
+      <c r="IH79">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="80" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>50</v>
       </c>
@@ -34527,7 +36728,7 @@
       <c r="DC80" s="22"/>
       <c r="DD80" s="22"/>
     </row>
-    <row r="81" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
         <v>51</v>
       </c>
@@ -34577,7 +36778,7 @@
       <c r="DC81" s="22"/>
       <c r="DD81" s="22"/>
     </row>
-    <row r="82" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>273</v>
       </c>
@@ -35256,8 +37457,56 @@
       <c r="HR82" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="HS82" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HT82" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HU82" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HV82" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HW82" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HX82" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HY82" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HZ82" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IA82" s="60">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IB82" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IC82" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="ID82" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IE82" s="53">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IF82">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IG82">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IH82">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="83" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>274</v>
       </c>
@@ -35936,8 +38185,56 @@
       <c r="HR83" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="HS83" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HT83" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HU83" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HV83" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HW83" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HX83" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HY83" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HZ83" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IA83" s="60">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IB83" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IC83" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="ID83" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IE83" s="53">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IF83">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IG83">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IH83">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>275</v>
       </c>
@@ -36616,8 +38913,56 @@
       <c r="HR84" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="HS84" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HT84" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HU84" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HV84" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HW84" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HX84" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HY84" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HZ84" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IA84" s="60">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IB84" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IC84" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="ID84" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IE84" s="53">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IF84">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IG84">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IH84">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="85" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>276</v>
       </c>
@@ -37296,8 +39641,56 @@
       <c r="HR85" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="HS85" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HT85" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HU85" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HV85" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HW85" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HX85" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HY85" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HZ85" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IA85" s="60">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IB85" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IC85" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="ID85" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IE85" s="53">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IF85">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IG85">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IH85">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>277</v>
       </c>
@@ -37976,8 +40369,56 @@
       <c r="HR86" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="HS86" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HT86" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HU86" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HV86" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HW86" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HX86" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HY86" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HZ86" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IA86" s="60">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IB86" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IC86" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="ID86" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IE86" s="53">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IF86">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IG86">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IH86">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>278</v>
       </c>
@@ -38656,8 +41097,56 @@
       <c r="HR87" s="17">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="HS87" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HT87" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HU87" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HV87" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HW87" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HX87" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HY87" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="HZ87" s="17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IA87" s="60">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IB87" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IC87" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="ID87" s="42">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IE87" s="53">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IF87">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IG87">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="IH87">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="88" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
@@ -38759,8 +41248,12 @@
       <c r="GR88" s="15"/>
       <c r="GS88" s="15"/>
       <c r="GT88" s="15"/>
+      <c r="HW88" s="51"/>
+      <c r="HX88" s="15"/>
+      <c r="HY88" s="15"/>
+      <c r="HZ88" s="15"/>
     </row>
-    <row r="89" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
         <v>55</v>
       </c>
@@ -38810,7 +41303,7 @@
       <c r="DC89" s="22"/>
       <c r="DD89" s="22"/>
     </row>
-    <row r="90" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
         <v>56</v>
       </c>
@@ -38860,7 +41353,7 @@
       <c r="DC90" s="22"/>
       <c r="DD90" s="22"/>
     </row>
-    <row r="91" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>279</v>
       </c>
@@ -39536,8 +42029,56 @@
       <c r="HR91" s="15">
         <v>0</v>
       </c>
+      <c r="HS91" s="51">
+        <v>0</v>
+      </c>
+      <c r="HT91" s="15">
+        <v>0</v>
+      </c>
+      <c r="HU91" s="15">
+        <v>0</v>
+      </c>
+      <c r="HV91" s="15">
+        <v>0</v>
+      </c>
+      <c r="HW91" s="51">
+        <v>0</v>
+      </c>
+      <c r="HX91" s="15">
+        <v>0</v>
+      </c>
+      <c r="HY91" s="15">
+        <v>0</v>
+      </c>
+      <c r="HZ91" s="15">
+        <v>0</v>
+      </c>
+      <c r="IA91" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="IB91" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="IC91" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="ID91" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="IE91" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="IF91">
+        <v>0.25</v>
+      </c>
+      <c r="IG91">
+        <v>0.25</v>
+      </c>
+      <c r="IH91">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="92" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -39593,8 +42134,12 @@
       <c r="HP92"/>
       <c r="HQ92"/>
       <c r="HR92"/>
+      <c r="HS92" s="53"/>
+      <c r="HT92"/>
+      <c r="HU92"/>
+      <c r="HV92"/>
     </row>
-    <row r="93" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A93" s="27" t="s">
         <v>57</v>
       </c>
@@ -39653,8 +42198,12 @@
       <c r="HP93"/>
       <c r="HQ93"/>
       <c r="HR93"/>
+      <c r="HS93" s="53"/>
+      <c r="HT93"/>
+      <c r="HU93"/>
+      <c r="HV93"/>
     </row>
-    <row r="94" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
         <v>56</v>
       </c>
@@ -39713,8 +42262,12 @@
       <c r="HP94"/>
       <c r="HQ94"/>
       <c r="HR94"/>
+      <c r="HS94" s="53"/>
+      <c r="HT94"/>
+      <c r="HU94"/>
+      <c r="HV94"/>
     </row>
-    <row r="95" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
         <v>280</v>
       </c>
@@ -40390,8 +42943,56 @@
       <c r="HR95" s="15">
         <v>0</v>
       </c>
+      <c r="HS95" s="51">
+        <v>0</v>
+      </c>
+      <c r="HT95" s="15">
+        <v>0</v>
+      </c>
+      <c r="HU95" s="15">
+        <v>0</v>
+      </c>
+      <c r="HV95" s="15">
+        <v>0</v>
+      </c>
+      <c r="HW95" s="51">
+        <v>0</v>
+      </c>
+      <c r="HX95" s="15">
+        <v>0</v>
+      </c>
+      <c r="HY95" s="15">
+        <v>0</v>
+      </c>
+      <c r="HZ95" s="15">
+        <v>0</v>
+      </c>
+      <c r="IA95" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="IB95" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="IC95" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="ID95" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="IE95" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="IF95">
+        <v>0.5</v>
+      </c>
+      <c r="IG95">
+        <v>0.5</v>
+      </c>
+      <c r="IH95">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="96" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
@@ -40447,8 +43048,12 @@
       <c r="HP96"/>
       <c r="HQ96"/>
       <c r="HR96"/>
+      <c r="HS96" s="53"/>
+      <c r="HT96"/>
+      <c r="HU96"/>
+      <c r="HV96"/>
     </row>
-    <row r="97" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
         <v>58</v>
       </c>
@@ -40507,8 +43112,12 @@
       <c r="HP97"/>
       <c r="HQ97"/>
       <c r="HR97"/>
+      <c r="HS97" s="53"/>
+      <c r="HT97"/>
+      <c r="HU97"/>
+      <c r="HV97"/>
     </row>
-    <row r="98" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>281</v>
       </c>
@@ -41187,8 +43796,56 @@
       <c r="HR98">
         <v>0</v>
       </c>
+      <c r="HS98" s="53">
+        <v>0</v>
+      </c>
+      <c r="HT98">
+        <v>0</v>
+      </c>
+      <c r="HU98">
+        <v>0</v>
+      </c>
+      <c r="HV98">
+        <v>0</v>
+      </c>
+      <c r="HW98" s="53">
+        <v>0</v>
+      </c>
+      <c r="HX98">
+        <v>0</v>
+      </c>
+      <c r="HY98">
+        <v>0</v>
+      </c>
+      <c r="HZ98">
+        <v>0</v>
+      </c>
+      <c r="IA98" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="IB98" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="IC98" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="ID98" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="IE98" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="IF98" t="s">
+        <v>91</v>
+      </c>
+      <c r="IG98" t="s">
+        <v>91</v>
+      </c>
+      <c r="IH98" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="99" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
@@ -41235,7 +43892,7 @@
       <c r="DC99" s="22"/>
       <c r="DD99" s="22"/>
     </row>
-    <row r="100" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A100" s="27" t="s">
         <v>60</v>
       </c>
@@ -41285,7 +43942,7 @@
       <c r="DC100" s="22"/>
       <c r="DD100" s="22"/>
     </row>
-    <row r="101" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A101" s="27" t="s">
         <v>61</v>
       </c>
@@ -41335,7 +43992,7 @@
       <c r="DC101" s="22"/>
       <c r="DD101" s="22"/>
     </row>
-    <row r="102" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
         <v>62</v>
       </c>
@@ -41385,7 +44042,7 @@
       <c r="DC102" s="22"/>
       <c r="DD102" s="22"/>
     </row>
-    <row r="103" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
         <v>282</v>
       </c>
@@ -42064,8 +44721,56 @@
       <c r="HR103" t="s">
         <v>92</v>
       </c>
+      <c r="HS103" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="HT103" t="s">
+        <v>92</v>
+      </c>
+      <c r="HU103" t="s">
+        <v>92</v>
+      </c>
+      <c r="HV103" t="s">
+        <v>92</v>
+      </c>
+      <c r="HW103" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="HX103" t="s">
+        <v>92</v>
+      </c>
+      <c r="HY103" t="s">
+        <v>92</v>
+      </c>
+      <c r="HZ103" t="s">
+        <v>92</v>
+      </c>
+      <c r="IA103" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="IB103" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="IC103" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="ID103" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="IE103" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="IF103" t="s">
+        <v>92</v>
+      </c>
+      <c r="IG103" t="s">
+        <v>92</v>
+      </c>
+      <c r="IH103" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="104" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
@@ -42112,7 +44817,7 @@
       <c r="DC104" s="22"/>
       <c r="DD104" s="22"/>
     </row>
-    <row r="105" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
         <v>64</v>
       </c>
@@ -42162,7 +44867,7 @@
       <c r="DC105" s="22"/>
       <c r="DD105" s="22"/>
     </row>
-    <row r="106" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A106" s="27" t="s">
         <v>65</v>
       </c>
@@ -42212,7 +44917,7 @@
       <c r="DC106" s="22"/>
       <c r="DD106" s="22"/>
     </row>
-    <row r="107" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A107" s="27" t="s">
         <v>66</v>
       </c>
@@ -42262,7 +44967,7 @@
       <c r="DC107" s="22"/>
       <c r="DD107" s="22"/>
     </row>
-    <row r="108" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
         <v>354</v>
       </c>
@@ -42938,8 +45643,56 @@
       <c r="HR108" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="HS108" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="HT108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="HU108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="HV108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="HW108" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="HX108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="HY108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="HZ108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="IA108" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="IB108" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="IC108" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="ID108" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="IE108" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="IF108" t="s">
+        <v>93</v>
+      </c>
+      <c r="IG108" t="s">
+        <v>93</v>
+      </c>
+      <c r="IH108" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="109" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
         <v>283</v>
       </c>
@@ -43615,8 +46368,56 @@
       <c r="HR109" s="22">
         <v>1</v>
       </c>
+      <c r="HS109" s="48">
+        <v>1</v>
+      </c>
+      <c r="HT109" s="22">
+        <v>1</v>
+      </c>
+      <c r="HU109" s="22">
+        <v>1</v>
+      </c>
+      <c r="HV109" s="22">
+        <v>1</v>
+      </c>
+      <c r="HW109" s="51">
+        <v>1</v>
+      </c>
+      <c r="HX109" s="15">
+        <v>1</v>
+      </c>
+      <c r="HY109" s="15">
+        <v>1</v>
+      </c>
+      <c r="HZ109" s="15">
+        <v>1</v>
+      </c>
+      <c r="IA109" s="57">
+        <v>1</v>
+      </c>
+      <c r="IB109" s="36">
+        <v>1</v>
+      </c>
+      <c r="IC109" s="36">
+        <v>1</v>
+      </c>
+      <c r="ID109" s="36">
+        <v>1</v>
+      </c>
+      <c r="IE109" s="53">
+        <v>1</v>
+      </c>
+      <c r="IF109">
+        <v>1</v>
+      </c>
+      <c r="IG109">
+        <v>1</v>
+      </c>
+      <c r="IH109">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F110"/>
       <c r="G110"/>
       <c r="H110"/>
@@ -43668,7 +46469,7 @@
       <c r="DC110" s="22"/>
       <c r="DD110" s="22"/>
     </row>
-    <row r="111" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A111" s="27" t="s">
         <v>67</v>
       </c>
@@ -43718,7 +46519,7 @@
       <c r="DC111" s="22"/>
       <c r="DD111" s="22"/>
     </row>
-    <row r="112" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A112" s="27" t="s">
         <v>65</v>
       </c>
@@ -43768,7 +46569,7 @@
       <c r="DC112" s="22"/>
       <c r="DD112" s="22"/>
     </row>
-    <row r="113" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A113" s="27" t="s">
         <v>68</v>
       </c>
@@ -43818,7 +46619,7 @@
       <c r="DC113" s="22"/>
       <c r="DD113" s="22"/>
     </row>
-    <row r="114" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A114" s="27" t="s">
         <v>69</v>
       </c>
@@ -43868,7 +46669,7 @@
       <c r="DC114" s="22"/>
       <c r="DD114" s="22"/>
     </row>
-    <row r="115" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
         <v>284</v>
       </c>
@@ -44547,8 +47348,56 @@
       <c r="HR115" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="HS115" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="HT115" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="HU115" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="HV115" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="HW115" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="HX115" t="s">
+        <v>94</v>
+      </c>
+      <c r="HY115" t="s">
+        <v>94</v>
+      </c>
+      <c r="HZ115" t="s">
+        <v>94</v>
+      </c>
+      <c r="IA115" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="IB115" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="IC115" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="ID115" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="IE115" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="IF115" t="s">
+        <v>94</v>
+      </c>
+      <c r="IG115" t="s">
+        <v>94</v>
+      </c>
+      <c r="IH115" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="116" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:242" x14ac:dyDescent="0.2">
       <c r="F116"/>
       <c r="G116"/>
       <c r="H116"/>
@@ -44595,7 +47444,7 @@
       <c r="DC116" s="22"/>
       <c r="DD116" s="22"/>
     </row>
-    <row r="117" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>71</v>
       </c>
@@ -44645,7 +47494,7 @@
       <c r="DC117" s="22"/>
       <c r="DD117" s="22"/>
     </row>
-    <row r="118" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A118" s="27" t="s">
         <v>72</v>
       </c>
@@ -44695,7 +47544,7 @@
       <c r="DC118" s="22"/>
       <c r="DD118" s="22"/>
     </row>
-    <row r="119" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
         <v>285</v>
       </c>
@@ -45371,8 +48220,56 @@
       <c r="HR119" s="22">
         <v>0</v>
       </c>
+      <c r="HS119" s="48">
+        <v>0</v>
+      </c>
+      <c r="HT119" s="22">
+        <v>0</v>
+      </c>
+      <c r="HU119" s="22">
+        <v>0</v>
+      </c>
+      <c r="HV119" s="22">
+        <v>0</v>
+      </c>
+      <c r="HW119" s="51">
+        <v>0</v>
+      </c>
+      <c r="HX119" s="15">
+        <v>0</v>
+      </c>
+      <c r="HY119" s="15">
+        <v>0</v>
+      </c>
+      <c r="HZ119" s="15">
+        <v>0</v>
+      </c>
+      <c r="IA119" s="57">
+        <v>0</v>
+      </c>
+      <c r="IB119" s="36">
+        <v>0</v>
+      </c>
+      <c r="IC119" s="36">
+        <v>0</v>
+      </c>
+      <c r="ID119" s="36">
+        <v>0</v>
+      </c>
+      <c r="IE119" s="53">
+        <v>0</v>
+      </c>
+      <c r="IF119">
+        <v>0</v>
+      </c>
+      <c r="IG119">
+        <v>0</v>
+      </c>
+      <c r="IH119">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:242" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
         <v>745</v>
       </c>
@@ -46048,8 +48945,56 @@
       <c r="HR120" s="22">
         <v>1</v>
       </c>
+      <c r="HS120" s="48">
+        <v>1</v>
+      </c>
+      <c r="HT120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HU120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HV120" s="22">
+        <v>1</v>
+      </c>
+      <c r="HW120" s="55">
+        <v>1</v>
+      </c>
+      <c r="HX120" s="2">
+        <v>1</v>
+      </c>
+      <c r="HY120" s="2">
+        <v>1</v>
+      </c>
+      <c r="HZ120" s="2">
+        <v>1</v>
+      </c>
+      <c r="IA120" s="55">
+        <v>1</v>
+      </c>
+      <c r="IB120" s="2">
+        <v>1</v>
+      </c>
+      <c r="IC120" s="2">
+        <v>1</v>
+      </c>
+      <c r="ID120" s="2">
+        <v>1</v>
+      </c>
+      <c r="IE120" s="55">
+        <v>1</v>
+      </c>
+      <c r="IF120" s="2">
+        <v>1</v>
+      </c>
+      <c r="IG120" s="2">
+        <v>1</v>
+      </c>
+      <c r="IH120" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="121" spans="1:226" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:242" x14ac:dyDescent="0.2">
       <c r="AK121" s="4"/>
       <c r="AL121" s="4"/>
       <c r="AM121" s="4"/>

--- a/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/AHLE scenario parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gemmachaters/Dropbox/Mac/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8AE0B4-426D-0D49-872D-93CD08E0D8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763FBADE-CE58-9E42-8A0D-222C9C72A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="26820" windowHeight="16300" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="26820" windowHeight="16100" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2970,8 +2970,8 @@
   <dimension ref="A1:IH121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="EF1" sqref="EF1:IE1048576"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
